--- a/results_analysis/spark_vertebralColum_02_hold_01_best.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01_best.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ADFA81-10F5-4056-9A24-E76D9A5A2FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA15FAA-646C-46E8-A2D3-B19C7F972AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1081,28 +1081,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.68354838709677401</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.68946236559139795</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.67118279569892503</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.74473118279569905</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.72182795698924695</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.78956989247311804</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.62677419354838704</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.65967741935483903</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.685161290322581</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.73193548387096796</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.74279569892473096</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.75107526881720399</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.75817204301075303</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.79806451612903195</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.66118279569892502</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.77903225806451604</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1112,14 +1144,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.67548387096774198</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.69236559139785003</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.70440860215053802</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.59344086021505404</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.70806451612903198</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.75311827956989297</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.64634408602150495</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.66870967741935505</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1127,14 +1175,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.67548387096774198</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.76494623655913996</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.663010752688172</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.76763440860215004</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.74559139784946205</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.79720430107526896</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.641182795698925</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.78118279569892501</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1146,28 +1210,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.67516129032258099</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.74677419354838703</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.71032258064516096</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.74548387096774205</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.71838709677419299</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.80086021505376304</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.71860215053763399</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.75806451612903203</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.77903225806451604</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.73107526881720397</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.77247311827956999</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.75913978494623702</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.73258064516128996</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.80365591397849501</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.684838709677419</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.77376344086021498</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1177,14 +1273,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.60516129032258104</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.71817204301075299</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.68881720430107496</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.71763440860215</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.673763440860215</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.80290322580645102</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.65634408602150496</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.63139784946236599</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -1192,14 +1304,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.65494623655913997</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.71408602150537603</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.74817204301075302</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.79161290322580602</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.695268817204301</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.80075268817204304</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.68096774193548404</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.80924731182795695</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1211,28 +1339,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.72086021505376296</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.68602150537634399</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.739032258064516</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.71397849462365603</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.72204301075268795</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.739247311827957</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.72161290322580596</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.74924731182795701</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.77225806451612899</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.75978494623655901</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.77064516129032301</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.76451612903225796</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.76591397849462395</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.75440860215053795</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.71086021505376396</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1242,14 +1402,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.70580645161290301</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.71569892473118302</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.71344086021505404</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.69161290322580604</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.69924731182795696</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.74236559139784897</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.68559139784946199</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.74344086021505396</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -1257,14 +1433,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.70236559139785004</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.76258064516128998</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.771397849462365</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.728602150537634</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.71935483870967698</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.760752688172043</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.69849462365591397</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.78075268817204302</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1276,28 +1468,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.67612903225806498</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.68505376344086</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.74408602150537595</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.760967741935484</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.79806451612903195</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.72956989247311799</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.71021505376344096</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.78430107526881698</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.61677419354838703</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.72010752688171997</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.749892473118279</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.79978494623655905</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.64462365591397797</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.76365591397849497</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.74634408602150504</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.69075268817204305</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1307,14 +1531,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.684408602150538</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.65924731182795704</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.70440860215053802</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.63408602150537596</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.66086021505376402</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.63956989247311802</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.64311827956989198</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.67129032258064503</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -1322,14 +1562,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.54978494623655905</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.71107526881720395</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.74</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.64440860215053797</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.70924731182795697</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.77516129032258096</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.75967741935483901</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.76795698924731204</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
@@ -1685,17 +1941,18 @@
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1824,44 +2081,108 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="27"/>
+      <c r="D5" s="27">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="F5" s="28">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="H5" s="28">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="J5" s="12">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="N5" s="27">
+        <v>-3.125E-2</v>
+      </c>
+      <c r="O5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="P5" s="28">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="R5" s="28">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="S5" s="27">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
+      <c r="D6" s="29">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H6" s="30">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L6" s="30">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N6" s="29">
+        <v>-2</v>
+      </c>
+      <c r="O6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P6" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R6" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S6" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1871,22 +2192,54 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="29"/>
+      <c r="D7" s="29">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F7" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H7" s="29">
+        <v>16</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N7" s="29">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="O7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P7" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R7" s="30">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="S7" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1894,22 +2247,54 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="D8" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L8" s="19">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N8" s="13">
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="O8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P8" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R8" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="S8" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1921,44 +2306,108 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="29"/>
+      <c r="D9" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="29">
+        <v>1</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0.999</v>
+      </c>
+      <c r="O9" s="29">
+        <v>1</v>
+      </c>
+      <c r="P9" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>1</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="S9" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="29"/>
+      <c r="D10" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="29">
+        <v>1</v>
+      </c>
+      <c r="L10" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="29">
+        <v>1</v>
+      </c>
+      <c r="N10" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="O10" s="29">
+        <v>1</v>
+      </c>
+      <c r="P10" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>1</v>
+      </c>
+      <c r="R10" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="S10" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1968,22 +2417,54 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="29"/>
+      <c r="D11" s="30">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="M11" s="29">
+        <v>1</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="O11" s="29">
+        <v>1</v>
+      </c>
+      <c r="P11" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>1</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="S11" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -1991,22 +2472,54 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="29"/>
+      <c r="D12" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1E-3</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="29">
+        <v>1</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="29">
+        <v>1</v>
+      </c>
+      <c r="L12" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="29">
+        <v>1</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="29">
+        <v>1</v>
+      </c>
+      <c r="P12" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>1</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="S12" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2018,44 +2531,108 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="D13" s="29">
+        <v>2</v>
+      </c>
+      <c r="E13" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G13" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="H13" s="31">
+        <v>1024</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0.2509765625</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="29">
+        <v>3.22265625E-2</v>
+      </c>
+      <c r="L13" s="19">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M13" s="29">
+        <v>0.5009765625</v>
+      </c>
+      <c r="N13" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="P13" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="R13" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S13" s="13">
+        <v>1024.0009765625</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="29"/>
+      <c r="D14" s="29">
+        <v>2</v>
+      </c>
+      <c r="E14" s="29">
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="H14" s="19">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="J14" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K14" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="29">
+        <v>0.2509765625</v>
+      </c>
+      <c r="N14" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="P14" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="R14" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S14" s="29">
+        <v>128.0009765625</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2065,22 +2642,54 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
+      <c r="D15" s="29">
+        <v>4</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1.0009765625</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="30">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="H15" s="30">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I15" s="30">
+        <v>256.0009765625</v>
+      </c>
+      <c r="J15" s="29">
+        <v>1</v>
+      </c>
+      <c r="K15" s="13">
+        <v>32.0009765625</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="M15" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="O15" s="13">
+        <v>32.0009765625</v>
+      </c>
+      <c r="P15" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="R15" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="S15" s="29">
+        <v>1024.0009765625</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -2088,22 +2697,54 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
+      <c r="D16" s="29">
+        <v>8</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="F16" s="29">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1.0009765625</v>
+      </c>
+      <c r="H16" s="13">
+        <v>128</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0.1259765625</v>
+      </c>
+      <c r="J16" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K16" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="L16" s="29">
+        <v>3.125E-2</v>
+      </c>
+      <c r="M16" s="29">
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="N16" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O16" s="29">
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="P16" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="R16" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S16" s="29">
+        <v>1024.0009765625</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2115,44 +2756,108 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="D17" s="29">
+        <v>2</v>
+      </c>
+      <c r="E17" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="F17" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G17" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="H17" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I17" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="J17" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K17" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="L17" s="19">
+        <v>1</v>
+      </c>
+      <c r="M17" s="19">
+        <v>512.0009765625</v>
+      </c>
+      <c r="N17" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O17" s="13">
+        <v>512.0009765625</v>
+      </c>
+      <c r="P17" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="R17" s="29">
+        <v>1</v>
+      </c>
+      <c r="S17" s="29">
+        <v>1024.0009765625</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="29"/>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="F18" s="30">
+        <v>8</v>
+      </c>
+      <c r="G18" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="H18" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="I18" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="J18" s="29">
+        <v>8</v>
+      </c>
+      <c r="K18" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="L18" s="19">
+        <v>2</v>
+      </c>
+      <c r="M18" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="N18" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="P18" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="R18" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="S18" s="29">
+        <v>4.0009765625</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2162,22 +2867,54 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="29"/>
+      <c r="D19" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G19" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="H19" s="31">
+        <v>4</v>
+      </c>
+      <c r="I19" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="J19" s="30">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K19" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="L19" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="M19" s="13">
+        <v>128.0009765625</v>
+      </c>
+      <c r="N19" s="29">
+        <v>-512</v>
+      </c>
+      <c r="O19" s="13">
+        <v>-3.02734375E-2</v>
+      </c>
+      <c r="P19" s="30">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="R19" s="31">
+        <v>8</v>
+      </c>
+      <c r="S19" s="29">
+        <v>512.0009765625</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2185,22 +2922,54 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="13"/>
+      <c r="D20" s="30">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0.1259765625</v>
+      </c>
+      <c r="F20" s="30">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2.0009765625</v>
+      </c>
+      <c r="H20" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="I20" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="J20" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="K20" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="L20" s="31">
+        <v>32</v>
+      </c>
+      <c r="M20" s="13">
+        <v>64.0009765625</v>
+      </c>
+      <c r="N20" s="29">
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="O20" s="13">
+        <v>16.0009765625</v>
+      </c>
+      <c r="P20" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>16.0009765625</v>
+      </c>
+      <c r="R20" s="31">
+        <v>2</v>
+      </c>
+      <c r="S20" s="13">
+        <v>16.0009765625</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -2595,14 +3364,30 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.61774353582333896</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.63516659860564695</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.56164481419865597</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.67767414757169697</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.71620658448366303</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.68798080182461296</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.68684582429276098</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.45319014270121399</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -2610,14 +3395,30 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.69343002548801702</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.64334366075272797</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.64438256764888002</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.66681616859820303</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.69553058000621704</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.76521752065069404</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.67484718211742001</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.68083212516010905</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2627,14 +3428,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.58352004334348795</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.66458245090866497</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.54312229107405696</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.562022483747044</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.66649590163934402</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.798733859647075</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.68042306212992298</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.54935289179004698</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -2642,14 +3459,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.64203410517494497</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.75815259905115895</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.57233605355801298</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.74202304909203998</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.67547357926221296</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.76819541375872402</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.62292284791702301</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.80749713301550397</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2661,14 +3494,30 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.562403804410751</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.66649590163934402</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.61820862163611301</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.74683661656148803</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.65635465672660398</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.76573989962977096</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.69337524528153605</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.78701372884506204</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -2676,14 +3525,30 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.72771986318308102</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.74368559771961296</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.75907854283469101</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.69132923088545395</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.67072118147785698</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.67135802742165995</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.67632722621160601</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -2693,14 +3558,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.58959996451026497</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.68399617795432399</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.57824058279644697</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.63336935353618395</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.64018439966448004</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.72201503776540499</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.61382277229225002</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.50764705882353001</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -2708,14 +3589,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.482026806245133</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.63761067343136302</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.66513409758972797</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.71667073805110204</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.56235294117647106</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.78740551913536205</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.63575042258405001</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.708077386637605</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2727,14 +3624,30 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.591814516077524</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.78582527798574098</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.494283549481837</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.66551616412066394</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.76281872210108004</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.63961617527595505</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.63967557793442498</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.63468013468013496</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -2742,14 +3655,30 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.65327457991848803</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.80964721384458505</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.63967557793442498</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.74588400638000896</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.85491550994485699</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.68798080182461296</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.75555955431764199</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2759,14 +3688,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.59534004810890195</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.60533964996473699</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.67657793434013402</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.54312229107405696</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.54106851468434602</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.71082186929256497</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.67211915073708395</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.67755059978641896</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -2774,14 +3719,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.58467480632913404</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.722804197800066</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.78281182212284295</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.67349398102955005</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.59501785898669701</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.67657793434013402</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.65995384227168996</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.67967853042479898</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2793,14 +3754,30 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.591814516077524</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.67903298590332095</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.70407685969217104</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.75921373032981898</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.76901190520357199</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.71920289855072495</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.71118012422360199</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.72849970863957503</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -2808,14 +3785,30 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.61012980329519395</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.67259505037493705</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.67440048733376301</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.75232266490466004</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.45319014270121399</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.70920814326697501</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.68586465521481199</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.51125789995477</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2825,14 +3818,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.63419633029614197</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.57290470723306497</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.61012980329519395</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.70814714005470303</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.65139747450361196</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.587740578713425</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.50853355484374296</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.68174942357656798</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2840,14 +3849,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.63294349372498904</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.74863127513261196</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.63073692860083297</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.60698066076715695</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.63164662813845696</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.70553506621839002</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.67141413459119004</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.85706967213114804</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2942,14 +3967,30 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.80344202898550698</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.79124579124579097</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.77197057684862602</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.83557731538147695</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.84967672413793105</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.84343434343434298</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.82336182336182295</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.66927453769558998</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -2957,14 +3998,30 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.84290540540540504</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.82115384615384601</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.81734006734006703</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.83219986120749501</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.84760911663935701</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.88125975315647598</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.83560606060606102</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.83983926521240004</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2974,14 +4031,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.79124579124579097</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.81674876847290701</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.77037037037037004</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.77093596059113301</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.83324795081967196</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.88829574269318001</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.81009009009009003</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.77197057684862602</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -2989,14 +4062,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.81997677119628298</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.87698412698412698</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.78117647058823503</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.86993006993007005</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.83773678963110698</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.88409770687936196</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.80636864666258401</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.90322580645161299</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3008,14 +4097,30 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.77313384290128495</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.83324795081967196</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.80852941176470605</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.87188121842951205</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.82720178372352304</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.88089139344262302</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.83965517241379295</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.89022950819672098</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -3023,14 +4128,30 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.87903225806451601</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.86323529411764699</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.86952861952862004</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.87903225806451601</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.84343434343434298</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.82848631011491003</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.82777777777777795</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.83363148479427596</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -3040,14 +4161,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.78900306953156296</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.83557731538147695</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.78900306953156296</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.80942622950819698</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.81997677119628298</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.86087311301509595</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.753823529411765</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -3055,14 +4192,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.73604541154210001</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.80344202898550698</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.82138284250960303</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.855590062111801</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.78117647058823503</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.89357914812460304</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.81734006734006703</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.85115236875800304</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3074,14 +4227,30 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.79124579124579097</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.88546798029556695</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.73207426376440499</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.82462284482758597</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.88125975315647598</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.81506608960112303</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.81382623782196695</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.81734006734006703</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -3089,14 +4258,30 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.82462284482758597</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.899784482758621</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.81382623782196695</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.86993006993007005</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.92180180180180205</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.84343434343434298</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.85483870967741904</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.87698412698412698</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3106,14 +4291,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.79605263157894701</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.80170575692963797</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.83588235294117696</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.77037037037037004</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.77005494505494498</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.84670329670329703</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.83560606060606102</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.83864940611237204</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -3121,14 +4322,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.792194249962759</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.85706967213114804</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.89022950819672098</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.83557731538147695</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.78070016325049896</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.83588235294117696</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.80945626477541399</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.83983926521240004</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3140,14 +4357,30 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.79124579124579097</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.83773678963110698</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.851928965094917</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.87473060344827602</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.88257575757575801</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.85960144927536197</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.855590062111801</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.86087311301509595</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -3155,14 +4388,30 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.80317460317460299</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.82440087145969498</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.83152173913043503</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.87328130806391702</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.66927453769558998</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.83983926521240004</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.83560606060606102</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.742885021954789</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3172,14 +4421,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.80416202155332595</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.78645235361653298</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.80317460317460299</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.83773678963110698</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.82440087145969498</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.78579221723845305</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.73406223717409602</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.83243243243243203</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3187,14 +4452,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.81028151774785795</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.87328130806391702</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.81314580941446601</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.79782608695652202</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.80890410958904102</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.85141612200435701</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.83557731538147695</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.92853483606557397</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3208,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C92042-0542-4E55-9D7F-B323C5541110}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3287,28 +4568,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>7.7104566821195E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6.14240374934776E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>7.7496250867308894E-2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5.42633433338644E-2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>6.0240940765126802E-2</v>
+      </c>
+      <c r="I5" s="12">
+        <v>4.5472480581370101E-2</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.127018931245786</v>
+      </c>
+      <c r="K5" s="53">
+        <v>8.3323259743533398E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>7.7086767362122194E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5.8741115055253097E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>5.1753004881922603E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>4.7387179940584903E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <v>5.5030045905336201E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <v>4.4362909896887799E-2</v>
+      </c>
+      <c r="J6" s="13">
+        <v>9.2264181074130105E-2</v>
+      </c>
+      <c r="K6" s="15">
+        <v>4.6390885687848597E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3318,14 +4631,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>6.8029666109040099E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>6.1245336473222702E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>6.0720600412567598E-2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>9.4158624565321605E-2</v>
+      </c>
+      <c r="H7" s="13">
+        <v>5.0257700565947E-2</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.14094496574471399</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.10082161646912401</v>
+      </c>
+      <c r="K7" s="15">
+        <v>6.4997570086559694E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -3333,14 +4662,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>7.5235915786943899E-2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>5.94872147094943E-2</v>
+      </c>
+      <c r="F8" s="14">
+        <v>8.8816596802490794E-2</v>
+      </c>
+      <c r="G8" s="14">
+        <v>5.5818128905881101E-2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>5.8819893751918498E-2</v>
+      </c>
+      <c r="I8" s="14">
+        <v>6.5842418956511703E-2</v>
+      </c>
+      <c r="J8" s="14">
+        <v>9.7341601969558905E-2</v>
+      </c>
+      <c r="K8" s="56">
+        <v>5.5765378058801003E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3352,28 +4697,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>9.3631245849586694E-2</v>
+      </c>
+      <c r="E9" s="58">
+        <v>4.7189603867353103E-2</v>
+      </c>
+      <c r="F9" s="58">
+        <v>6.2881058347852195E-2</v>
+      </c>
+      <c r="G9" s="58">
+        <v>5.6796286238022499E-2</v>
+      </c>
+      <c r="H9" s="58">
+        <v>5.8190591597677102E-2</v>
+      </c>
+      <c r="I9" s="58">
+        <v>3.9336963952081E-2</v>
+      </c>
+      <c r="J9" s="58">
+        <v>6.2288297176594502E-2</v>
+      </c>
+      <c r="K9" s="59">
+        <v>5.3915284650997201E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>4.7534823076289298E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>6.3041972121786402E-2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5.1979078308591699E-2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>5.8755925164085399E-2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>6.1980040662734603E-2</v>
+      </c>
+      <c r="I10" s="13">
+        <v>3.2008009499217401E-2</v>
+      </c>
+      <c r="J10" s="13">
+        <v>8.8056930794770297E-2</v>
+      </c>
+      <c r="K10" s="15">
+        <v>4.9332331280531203E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -3383,14 +4760,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>9.1394079874218798E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5.36284827251296E-2</v>
+      </c>
+      <c r="F11" s="13">
+        <v>5.8132861875734299E-2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>4.6547836890463302E-2</v>
+      </c>
+      <c r="H11" s="13">
+        <v>6.5525930289204198E-2</v>
+      </c>
+      <c r="I11" s="13">
+        <v>3.7281468128294401E-2</v>
+      </c>
+      <c r="J11" s="13">
+        <v>7.6016396398859806E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <v>9.1509014360958998E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -3398,14 +4791,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>9.4596683952728605E-2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>6.4354727329069703E-2</v>
+      </c>
+      <c r="F12" s="14">
+        <v>5.3385879649252801E-2</v>
+      </c>
+      <c r="G12" s="14">
+        <v>4.7838630347620599E-2</v>
+      </c>
+      <c r="H12" s="14">
+        <v>5.2393093153360298E-2</v>
+      </c>
+      <c r="I12" s="14">
+        <v>4.25042128390919E-2</v>
+      </c>
+      <c r="J12" s="14">
+        <v>8.3668466355564602E-2</v>
+      </c>
+      <c r="K12" s="56">
+        <v>4.1732387022643903E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3417,28 +4826,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>5.2852497752449497E-2</v>
+      </c>
+      <c r="E13" s="58">
+        <v>6.2005379143463199E-2</v>
+      </c>
+      <c r="F13" s="58">
+        <v>7.0385757068226501E-2</v>
+      </c>
+      <c r="G13" s="58">
+        <v>4.6125286349537303E-2</v>
+      </c>
+      <c r="H13" s="58">
+        <v>6.97691302893724E-2</v>
+      </c>
+      <c r="I13" s="58">
+        <v>5.0972984420530103E-2</v>
+      </c>
+      <c r="J13" s="58">
+        <v>5.0327365888378897E-2</v>
+      </c>
+      <c r="K13" s="59">
+        <v>6.2696451608273404E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>5.0524344899193302E-2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>5.54925593284228E-2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>4.4327092572077897E-2</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5.1648529574585302E-2</v>
+      </c>
+      <c r="H14" s="13">
+        <v>6.7566634833870196E-2</v>
+      </c>
+      <c r="I14" s="13">
+        <v>5.2496309155074299E-2</v>
+      </c>
+      <c r="J14" s="13">
+        <v>5.3898386091937797E-2</v>
+      </c>
+      <c r="K14" s="15">
+        <v>5.2430416881487599E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3448,14 +4889,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>5.40887302849275E-2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>5.3476370553953101E-2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>6.0371079800687601E-2</v>
+      </c>
+      <c r="G15" s="13">
+        <v>6.0824085705933499E-2</v>
+      </c>
+      <c r="H15" s="13">
+        <v>5.8326106616753901E-2</v>
+      </c>
+      <c r="I15" s="13">
+        <v>4.8999777732512802E-2</v>
+      </c>
+      <c r="J15" s="13">
+        <v>6.4027693829881493E-2</v>
+      </c>
+      <c r="K15" s="15">
+        <v>4.7476927884935002E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -3463,14 +4920,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>6.0400187091288499E-2</v>
+      </c>
+      <c r="E16" s="14">
+        <v>6.16214599342867E-2</v>
+      </c>
+      <c r="F16" s="14">
+        <v>4.8992626881266703E-2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>7.3774044907824202E-2</v>
+      </c>
+      <c r="H16" s="14">
+        <v>6.5726668520094803E-2</v>
+      </c>
+      <c r="I16" s="14">
+        <v>5.6120275951422403E-2</v>
+      </c>
+      <c r="J16" s="14">
+        <v>7.4886459201247604E-2</v>
+      </c>
+      <c r="K16" s="56">
+        <v>4.5540233929780002E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3482,28 +4955,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>9.2274117084807802E-2</v>
+      </c>
+      <c r="E17" s="58">
+        <v>7.6298179397497001E-2</v>
+      </c>
+      <c r="F17" s="58">
+        <v>4.6632563734710399E-2</v>
+      </c>
+      <c r="G17" s="58">
+        <v>4.8059667176048697E-2</v>
+      </c>
+      <c r="H17" s="58">
+        <v>3.4702637451704897E-2</v>
+      </c>
+      <c r="I17" s="58">
+        <v>5.9238441758408901E-2</v>
+      </c>
+      <c r="J17" s="58">
+        <v>8.8831783020743599E-2</v>
+      </c>
+      <c r="K17" s="59">
+        <v>6.1339178963517198E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.116006677595119</v>
+      </c>
+      <c r="E18" s="13">
+        <v>5.8824559543233401E-2</v>
+      </c>
+      <c r="F18" s="13">
+        <v>6.1885094088541197E-2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>4.8251865625684197E-2</v>
+      </c>
+      <c r="H18" s="13">
+        <v>8.94214462024637E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <v>5.3272001789947003E-2</v>
+      </c>
+      <c r="J18" s="13">
+        <v>4.9643253280377803E-2</v>
+      </c>
+      <c r="K18" s="15">
+        <v>5.7329746302888E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3513,14 +5018,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>7.2854176458645198E-2</v>
+      </c>
+      <c r="E19" s="13">
+        <v>8.7391274600053998E-2</v>
+      </c>
+      <c r="F19" s="13">
+        <v>6.1294895589489799E-2</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.124109180080824</v>
+      </c>
+      <c r="H19" s="13">
+        <v>7.3286436375437802E-2</v>
+      </c>
+      <c r="I19" s="13">
+        <v>9.8579400179149998E-2</v>
+      </c>
+      <c r="J19" s="13">
+        <v>9.8071211321013096E-2</v>
+      </c>
+      <c r="K19" s="15">
+        <v>7.3188125904606896E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3528,14 +5049,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.169648089930197</v>
+      </c>
+      <c r="E20" s="14">
+        <v>6.1583069125771897E-2</v>
+      </c>
+      <c r="F20" s="14">
+        <v>5.6493723529260603E-2</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.11951481338089801</v>
+      </c>
+      <c r="H20" s="14">
+        <v>9.5430371410242798E-2</v>
+      </c>
+      <c r="I20" s="14">
+        <v>4.3873581830172398E-2</v>
+      </c>
+      <c r="J20" s="14">
+        <v>6.5972749495719102E-2</v>
+      </c>
+      <c r="K20" s="56">
+        <v>5.0968516427447499E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
@@ -3959,28 +5496,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="D5" s="13">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.68279569892473102</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="D6" s="13">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.78494623655913998</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3990,14 +5559,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="D7" s="13">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.60215053763440896</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.67741935483870996</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -4005,14 +5590,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="D8" s="13">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.78494623655913998</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4024,28 +5625,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="D9" s="13">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.76344086021505397</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="D10" s="13">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.77419354838709697</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -4055,14 +5688,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="D11" s="13">
+        <v>0.61827956989247301</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.66129032258064502</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.64516129032258096</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4070,14 +5719,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="D12" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.80645161290322598</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4089,28 +5754,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="D13" s="13">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0.72043010752688197</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="D14" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.70967741935483897</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -4120,14 +5817,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="D15" s="13">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.70430107526881702</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.75268817204301097</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -4135,14 +5848,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="D16" s="13">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.77419354838709697</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4154,28 +5883,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="D17" s="13">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0.78494623655913998</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="D18" s="13">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.68817204301075297</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -4185,14 +5946,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="D19" s="13">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.63978494623655902</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0.67741935483870996</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4200,14 +5977,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="D20" s="13">
+        <v>0.61290322580645196</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.76344086021505397</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -4473,28 +6266,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.78494623655913998</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.88172043010752699</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.90322580645161299</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.87096774193548399</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4504,14 +6329,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.90322580645161299</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.79569892473118298</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -4519,14 +6360,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.88172043010752699</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.91397849462365599</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4538,28 +6395,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.90322580645161299</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.90322580645161299</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.88172043010752699</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -4569,14 +6458,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.88172043010752699</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.80645161290322598</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4584,14 +6489,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.90322580645161299</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.89247311827956999</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4603,28 +6524,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.90322580645161299</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.84946236559139798</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.91397849462365599</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.88172043010752699</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.92473118279569899</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.91397849462365599</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -4634,14 +6587,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.86021505376344098</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -4649,14 +6618,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.90322580645161299</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.87096774193548399</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4668,28 +6653,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.88172043010752699</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.88172043010752699</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.81720430107526898</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -4699,14 +6716,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.83870967741935498</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4714,14 +6747,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.88172043010752699</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.88172043010752699</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.93548387096774199</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
@@ -5145,28 +7194,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="D5" s="29">
+        <v>7</v>
+      </c>
+      <c r="E5" s="29">
+        <v>12</v>
+      </c>
+      <c r="F5" s="29">
+        <v>8</v>
+      </c>
+      <c r="G5" s="29">
+        <v>30</v>
+      </c>
+      <c r="H5" s="29">
+        <v>24</v>
+      </c>
+      <c r="I5" s="29">
+        <v>173</v>
+      </c>
+      <c r="J5" s="29">
+        <v>4</v>
+      </c>
+      <c r="K5" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="D6" s="29">
+        <v>10</v>
+      </c>
+      <c r="E6" s="29">
+        <v>22</v>
+      </c>
+      <c r="F6" s="29">
+        <v>32</v>
+      </c>
+      <c r="G6" s="29">
+        <v>30</v>
+      </c>
+      <c r="H6" s="29">
+        <v>30</v>
+      </c>
+      <c r="I6" s="29">
+        <v>173</v>
+      </c>
+      <c r="J6" s="29">
+        <v>6</v>
+      </c>
+      <c r="K6" s="29">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5176,14 +7257,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="D7" s="29">
+        <v>14</v>
+      </c>
+      <c r="E7" s="29">
+        <v>23</v>
+      </c>
+      <c r="F7" s="29">
+        <v>20</v>
+      </c>
+      <c r="G7" s="29">
+        <v>4</v>
+      </c>
+      <c r="H7" s="29">
+        <v>43</v>
+      </c>
+      <c r="I7" s="29">
+        <v>173</v>
+      </c>
+      <c r="J7" s="29">
+        <v>6</v>
+      </c>
+      <c r="K7" s="29">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -5191,14 +7288,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="D8" s="29">
+        <v>14</v>
+      </c>
+      <c r="E8" s="29">
+        <v>28</v>
+      </c>
+      <c r="F8" s="29">
+        <v>8</v>
+      </c>
+      <c r="G8" s="29">
+        <v>28</v>
+      </c>
+      <c r="H8" s="29">
+        <v>21</v>
+      </c>
+      <c r="I8" s="29">
+        <v>173</v>
+      </c>
+      <c r="J8" s="29">
+        <v>4</v>
+      </c>
+      <c r="K8" s="29">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5210,28 +7323,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="D9" s="29">
+        <v>5</v>
+      </c>
+      <c r="E9" s="29">
+        <v>45</v>
+      </c>
+      <c r="F9" s="29">
+        <v>24</v>
+      </c>
+      <c r="G9" s="29">
+        <v>33</v>
+      </c>
+      <c r="H9" s="29">
+        <v>15</v>
+      </c>
+      <c r="I9" s="29">
+        <v>173</v>
+      </c>
+      <c r="J9" s="29">
+        <v>13</v>
+      </c>
+      <c r="K9" s="29">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="D10" s="29">
+        <v>39</v>
+      </c>
+      <c r="E10" s="29">
+        <v>23</v>
+      </c>
+      <c r="F10" s="29">
+        <v>35</v>
+      </c>
+      <c r="G10" s="29">
+        <v>30</v>
+      </c>
+      <c r="H10" s="29">
+        <v>20</v>
+      </c>
+      <c r="I10" s="29">
+        <v>173</v>
+      </c>
+      <c r="J10" s="29">
+        <v>5</v>
+      </c>
+      <c r="K10" s="29">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5241,14 +7386,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="D11" s="29">
+        <v>5</v>
+      </c>
+      <c r="E11" s="29">
+        <v>41</v>
+      </c>
+      <c r="F11" s="29">
+        <v>23</v>
+      </c>
+      <c r="G11" s="29">
+        <v>33</v>
+      </c>
+      <c r="H11" s="29">
+        <v>10</v>
+      </c>
+      <c r="I11" s="29">
+        <v>173</v>
+      </c>
+      <c r="J11" s="29">
+        <v>18</v>
+      </c>
+      <c r="K11" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5256,14 +7417,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="D12" s="29">
+        <v>7</v>
+      </c>
+      <c r="E12" s="29">
+        <v>16</v>
+      </c>
+      <c r="F12" s="29">
+        <v>35</v>
+      </c>
+      <c r="G12" s="29">
+        <v>45</v>
+      </c>
+      <c r="H12" s="29">
+        <v>6</v>
+      </c>
+      <c r="I12" s="29">
+        <v>173</v>
+      </c>
+      <c r="J12" s="29">
+        <v>9</v>
+      </c>
+      <c r="K12" s="29">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -5275,28 +7452,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="D13" s="29">
+        <v>22</v>
+      </c>
+      <c r="E13" s="29">
+        <v>10</v>
+      </c>
+      <c r="F13" s="29">
+        <v>5</v>
+      </c>
+      <c r="G13" s="29">
+        <v>43</v>
+      </c>
+      <c r="H13" s="29">
+        <v>14</v>
+      </c>
+      <c r="I13" s="29">
+        <v>21</v>
+      </c>
+      <c r="J13" s="29">
+        <v>40</v>
+      </c>
+      <c r="K13" s="29">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="D14" s="29">
+        <v>19</v>
+      </c>
+      <c r="E14" s="29">
+        <v>15</v>
+      </c>
+      <c r="F14" s="29">
+        <v>20</v>
+      </c>
+      <c r="G14" s="29">
+        <v>29</v>
+      </c>
+      <c r="H14" s="29">
+        <v>18</v>
+      </c>
+      <c r="I14" s="29">
+        <v>17</v>
+      </c>
+      <c r="J14" s="29">
+        <v>20</v>
+      </c>
+      <c r="K14" s="29">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -5306,14 +7515,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="D15" s="29">
+        <v>12</v>
+      </c>
+      <c r="E15" s="29">
+        <v>26</v>
+      </c>
+      <c r="F15" s="29">
+        <v>19</v>
+      </c>
+      <c r="G15" s="29">
+        <v>8</v>
+      </c>
+      <c r="H15" s="29">
+        <v>14</v>
+      </c>
+      <c r="I15" s="29">
+        <v>44</v>
+      </c>
+      <c r="J15" s="29">
+        <v>10</v>
+      </c>
+      <c r="K15" s="29">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -5321,14 +7546,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="D16" s="29">
+        <v>8</v>
+      </c>
+      <c r="E16" s="29">
+        <v>23</v>
+      </c>
+      <c r="F16" s="29">
+        <v>37</v>
+      </c>
+      <c r="G16" s="29">
+        <v>16</v>
+      </c>
+      <c r="H16" s="29">
+        <v>16</v>
+      </c>
+      <c r="I16" s="29">
+        <v>16</v>
+      </c>
+      <c r="J16" s="29">
+        <v>7</v>
+      </c>
+      <c r="K16" s="29">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5340,28 +7581,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="D17" s="29">
+        <v>8</v>
+      </c>
+      <c r="E17" s="29">
+        <v>23</v>
+      </c>
+      <c r="F17" s="29">
+        <v>25</v>
+      </c>
+      <c r="G17" s="29">
+        <v>125</v>
+      </c>
+      <c r="H17" s="29">
+        <v>141</v>
+      </c>
+      <c r="I17" s="29">
+        <v>27</v>
+      </c>
+      <c r="J17" s="29">
+        <v>7</v>
+      </c>
+      <c r="K17" s="29">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="D18" s="29">
+        <v>6</v>
+      </c>
+      <c r="E18" s="29">
+        <v>20</v>
+      </c>
+      <c r="F18" s="29">
+        <v>37</v>
+      </c>
+      <c r="G18" s="29">
+        <v>112</v>
+      </c>
+      <c r="H18" s="29">
+        <v>9</v>
+      </c>
+      <c r="I18" s="29">
+        <v>29</v>
+      </c>
+      <c r="J18" s="29">
+        <v>16</v>
+      </c>
+      <c r="K18" s="29">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -5371,14 +7644,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="D19" s="29">
+        <v>12</v>
+      </c>
+      <c r="E19" s="29">
+        <v>9</v>
+      </c>
+      <c r="F19" s="29">
+        <v>20</v>
+      </c>
+      <c r="G19" s="29">
+        <v>6</v>
+      </c>
+      <c r="H19" s="29">
+        <v>15</v>
+      </c>
+      <c r="I19" s="29">
+        <v>4</v>
+      </c>
+      <c r="J19" s="29">
+        <v>4</v>
+      </c>
+      <c r="K19" s="29">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -5386,14 +7675,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="D20" s="29">
+        <v>6</v>
+      </c>
+      <c r="E20" s="29">
+        <v>33</v>
+      </c>
+      <c r="F20" s="29">
+        <v>35</v>
+      </c>
+      <c r="G20" s="29">
+        <v>9</v>
+      </c>
+      <c r="H20" s="29">
+        <v>17</v>
+      </c>
+      <c r="I20" s="29">
+        <v>52</v>
+      </c>
+      <c r="J20" s="29">
+        <v>25</v>
+      </c>
+      <c r="K20" s="29">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -5659,28 +7964,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>7.9</v>
+      </c>
+      <c r="E5" s="19">
+        <v>11.82</v>
+      </c>
+      <c r="F5" s="19">
+        <v>7.68</v>
+      </c>
+      <c r="G5" s="19">
+        <v>30.61</v>
+      </c>
+      <c r="H5" s="19">
+        <v>23.7</v>
+      </c>
+      <c r="I5" s="19">
+        <v>151.26</v>
+      </c>
+      <c r="J5" s="19">
+        <v>3.43</v>
+      </c>
+      <c r="K5" s="19">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>9.99</v>
+      </c>
+      <c r="E6" s="19">
+        <v>21.52</v>
+      </c>
+      <c r="F6" s="19">
+        <v>21.58</v>
+      </c>
+      <c r="G6" s="19">
+        <v>29.36</v>
+      </c>
+      <c r="H6" s="19">
+        <v>29.41</v>
+      </c>
+      <c r="I6" s="19">
+        <v>162.65</v>
+      </c>
+      <c r="J6" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="K6" s="19">
+        <v>61.4</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5690,14 +8027,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>13.33</v>
+      </c>
+      <c r="E7" s="19">
+        <v>22.98</v>
+      </c>
+      <c r="F7" s="19">
+        <v>14.74</v>
+      </c>
+      <c r="G7" s="19">
+        <v>5.16</v>
+      </c>
+      <c r="H7" s="19">
+        <v>42.99</v>
+      </c>
+      <c r="I7" s="19">
+        <v>162.77000000000001</v>
+      </c>
+      <c r="J7" s="19">
+        <v>6.17</v>
+      </c>
+      <c r="K7" s="19">
+        <v>13.39</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -5705,14 +8058,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>13.09</v>
+      </c>
+      <c r="E8" s="19">
+        <v>24.07</v>
+      </c>
+      <c r="F8" s="19">
+        <v>9.14</v>
+      </c>
+      <c r="G8" s="19">
+        <v>28.7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>20.6</v>
+      </c>
+      <c r="I8" s="19">
+        <v>169.68</v>
+      </c>
+      <c r="J8" s="19">
+        <v>5.04</v>
+      </c>
+      <c r="K8" s="19">
+        <v>25.84</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5724,28 +8093,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E9" s="19">
+        <v>41.7</v>
+      </c>
+      <c r="F9" s="19">
+        <v>23.31</v>
+      </c>
+      <c r="G9" s="19">
+        <v>30.23</v>
+      </c>
+      <c r="H9" s="19">
+        <v>15.1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>173</v>
+      </c>
+      <c r="J9" s="19">
+        <v>12.35</v>
+      </c>
+      <c r="K9" s="19">
+        <v>55.18</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>38</v>
+      </c>
+      <c r="E10" s="19">
+        <v>19.7</v>
+      </c>
+      <c r="F10" s="19">
+        <v>38.61</v>
+      </c>
+      <c r="G10" s="19">
+        <v>29.96</v>
+      </c>
+      <c r="H10" s="19">
+        <v>23.44</v>
+      </c>
+      <c r="I10" s="19">
+        <v>173</v>
+      </c>
+      <c r="J10" s="19">
+        <v>4.37</v>
+      </c>
+      <c r="K10" s="19">
+        <v>31.95</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5755,14 +8156,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>5.75</v>
+      </c>
+      <c r="E11" s="19">
+        <v>39.92</v>
+      </c>
+      <c r="F11" s="19">
+        <v>20</v>
+      </c>
+      <c r="G11" s="19">
+        <v>34.46</v>
+      </c>
+      <c r="H11" s="19">
+        <v>11.93</v>
+      </c>
+      <c r="I11" s="19">
+        <v>173</v>
+      </c>
+      <c r="J11" s="19">
+        <v>15.93</v>
+      </c>
+      <c r="K11" s="19">
+        <v>6.07</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5770,14 +8187,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E12" s="19">
+        <v>15.43</v>
+      </c>
+      <c r="F12" s="19">
+        <v>30.7</v>
+      </c>
+      <c r="G12" s="19">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="H12" s="19">
+        <v>6.89</v>
+      </c>
+      <c r="I12" s="19">
+        <v>173</v>
+      </c>
+      <c r="J12" s="19">
+        <v>7.45</v>
+      </c>
+      <c r="K12" s="19">
+        <v>48.87</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -5789,28 +8222,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>19.5</v>
+      </c>
+      <c r="E13" s="19">
+        <v>11.47</v>
+      </c>
+      <c r="F13" s="19">
+        <v>7.82</v>
+      </c>
+      <c r="G13" s="19">
+        <v>43.66</v>
+      </c>
+      <c r="H13" s="19">
+        <v>11.24</v>
+      </c>
+      <c r="I13" s="19">
+        <v>22.02</v>
+      </c>
+      <c r="J13" s="19">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="K13" s="19">
+        <v>12.36</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>18.5</v>
+      </c>
+      <c r="E14" s="19">
+        <v>13.26</v>
+      </c>
+      <c r="F14" s="19">
+        <v>22</v>
+      </c>
+      <c r="G14" s="19">
+        <v>27.58</v>
+      </c>
+      <c r="H14" s="19">
+        <v>15.92</v>
+      </c>
+      <c r="I14" s="19">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="J14" s="19">
+        <v>20.58</v>
+      </c>
+      <c r="K14" s="19">
+        <v>11.45</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -5820,14 +8285,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>15.57</v>
+      </c>
+      <c r="E15" s="19">
+        <v>26.46</v>
+      </c>
+      <c r="F15" s="19">
+        <v>19.43</v>
+      </c>
+      <c r="G15" s="19">
+        <v>9.19</v>
+      </c>
+      <c r="H15" s="19">
+        <v>14.74</v>
+      </c>
+      <c r="I15" s="19">
+        <v>41.06</v>
+      </c>
+      <c r="J15" s="19">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="K15" s="19">
+        <v>41.63</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -5835,14 +8316,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>8.23</v>
+      </c>
+      <c r="E16" s="19">
+        <v>18.5</v>
+      </c>
+      <c r="F16" s="19">
+        <v>35.68</v>
+      </c>
+      <c r="G16" s="19">
+        <v>12.53</v>
+      </c>
+      <c r="H16" s="19">
+        <v>12.06</v>
+      </c>
+      <c r="I16" s="19">
+        <v>13.51</v>
+      </c>
+      <c r="J16" s="19">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="K16" s="19">
+        <v>35.119999999999997</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5854,28 +8351,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>7.58</v>
+      </c>
+      <c r="E17" s="19">
+        <v>29.15</v>
+      </c>
+      <c r="F17" s="19">
+        <v>21.13</v>
+      </c>
+      <c r="G17" s="19">
+        <v>122.46</v>
+      </c>
+      <c r="H17" s="19">
+        <v>144.81</v>
+      </c>
+      <c r="I17" s="19">
+        <v>24.01</v>
+      </c>
+      <c r="J17" s="19">
+        <v>9.01</v>
+      </c>
+      <c r="K17" s="19">
+        <v>103.8</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>7.04</v>
+      </c>
+      <c r="E18" s="19">
+        <v>27.38</v>
+      </c>
+      <c r="F18" s="19">
+        <v>34.81</v>
+      </c>
+      <c r="G18" s="19">
+        <v>94.86</v>
+      </c>
+      <c r="H18" s="19">
+        <v>9.39</v>
+      </c>
+      <c r="I18" s="19">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J18" s="19">
+        <v>13.97</v>
+      </c>
+      <c r="K18" s="19">
+        <v>33.69</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -5885,14 +8414,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>11.86</v>
+      </c>
+      <c r="E19" s="19">
+        <v>10.25</v>
+      </c>
+      <c r="F19" s="19">
+        <v>21.2</v>
+      </c>
+      <c r="G19" s="19">
+        <v>4.71</v>
+      </c>
+      <c r="H19" s="19">
+        <v>13.95</v>
+      </c>
+      <c r="I19" s="19">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="J19" s="19">
+        <v>3.58</v>
+      </c>
+      <c r="K19" s="19">
+        <v>20.75</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -5900,14 +8445,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>5.97</v>
+      </c>
+      <c r="E20" s="19">
+        <v>30.01</v>
+      </c>
+      <c r="F20" s="19">
+        <v>37.33</v>
+      </c>
+      <c r="G20" s="19">
+        <v>7.69</v>
+      </c>
+      <c r="H20" s="19">
+        <v>13.32</v>
+      </c>
+      <c r="I20" s="19">
+        <v>52.45</v>
+      </c>
+      <c r="J20" s="19">
+        <v>21.04</v>
+      </c>
+      <c r="K20" s="19">
+        <v>39.64</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -6173,28 +8734,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29">
+        <v>1</v>
+      </c>
+      <c r="J5" s="29">
+        <v>1</v>
+      </c>
+      <c r="K5" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="D6" s="29">
+        <v>3</v>
+      </c>
+      <c r="E6" s="29">
+        <v>6</v>
+      </c>
+      <c r="F6" s="29">
+        <v>4</v>
+      </c>
+      <c r="G6" s="29">
+        <v>4</v>
+      </c>
+      <c r="H6" s="29">
+        <v>7</v>
+      </c>
+      <c r="I6" s="29">
+        <v>4</v>
+      </c>
+      <c r="J6" s="29">
+        <v>4</v>
+      </c>
+      <c r="K6" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -6204,14 +8797,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -6219,14 +8828,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="D8" s="29">
+        <v>5</v>
+      </c>
+      <c r="E8" s="29">
+        <v>10</v>
+      </c>
+      <c r="F8" s="29">
+        <v>3</v>
+      </c>
+      <c r="G8" s="29">
+        <v>9</v>
+      </c>
+      <c r="H8" s="29">
+        <v>9</v>
+      </c>
+      <c r="I8" s="29">
+        <v>6</v>
+      </c>
+      <c r="J8" s="29">
+        <v>8</v>
+      </c>
+      <c r="K8" s="29">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6238,28 +8863,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="29">
+        <v>1</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="D10" s="29">
+        <v>5</v>
+      </c>
+      <c r="E10" s="29">
+        <v>9</v>
+      </c>
+      <c r="F10" s="29">
+        <v>9</v>
+      </c>
+      <c r="G10" s="29">
+        <v>8</v>
+      </c>
+      <c r="H10" s="29">
+        <v>8</v>
+      </c>
+      <c r="I10" s="29">
+        <v>7</v>
+      </c>
+      <c r="J10" s="29">
+        <v>3</v>
+      </c>
+      <c r="K10" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -6269,14 +8926,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="D11" s="29">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -6284,14 +8957,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="D12" s="29">
+        <v>4</v>
+      </c>
+      <c r="E12" s="29">
+        <v>4</v>
+      </c>
+      <c r="F12" s="29">
+        <v>6</v>
+      </c>
+      <c r="G12" s="29">
+        <v>9</v>
+      </c>
+      <c r="H12" s="29">
+        <v>7</v>
+      </c>
+      <c r="I12" s="29">
+        <v>6</v>
+      </c>
+      <c r="J12" s="29">
+        <v>6</v>
+      </c>
+      <c r="K12" s="29">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -6303,28 +8992,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1</v>
+      </c>
+      <c r="G13" s="29">
+        <v>1</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1</v>
+      </c>
+      <c r="J13" s="29">
+        <v>1</v>
+      </c>
+      <c r="K13" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="D14" s="29">
+        <v>4</v>
+      </c>
+      <c r="E14" s="29">
+        <v>9</v>
+      </c>
+      <c r="F14" s="29">
+        <v>5</v>
+      </c>
+      <c r="G14" s="29">
+        <v>9</v>
+      </c>
+      <c r="H14" s="29">
+        <v>9</v>
+      </c>
+      <c r="I14" s="29">
+        <v>10</v>
+      </c>
+      <c r="J14" s="29">
+        <v>7</v>
+      </c>
+      <c r="K14" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -6334,14 +9055,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>1</v>
+      </c>
+      <c r="G15" s="29">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29">
+        <v>1</v>
+      </c>
+      <c r="I15" s="29">
+        <v>1</v>
+      </c>
+      <c r="J15" s="29">
+        <v>1</v>
+      </c>
+      <c r="K15" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -6349,14 +9086,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="D16" s="29">
+        <v>3</v>
+      </c>
+      <c r="E16" s="29">
+        <v>9</v>
+      </c>
+      <c r="F16" s="29">
+        <v>8</v>
+      </c>
+      <c r="G16" s="29">
+        <v>9</v>
+      </c>
+      <c r="H16" s="29">
+        <v>9</v>
+      </c>
+      <c r="I16" s="29">
+        <v>6</v>
+      </c>
+      <c r="J16" s="29">
+        <v>8</v>
+      </c>
+      <c r="K16" s="29">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -6368,28 +9121,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29">
+        <v>1</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1</v>
+      </c>
+      <c r="I17" s="29">
+        <v>1</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1</v>
+      </c>
+      <c r="K17" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="D18" s="29">
+        <v>9</v>
+      </c>
+      <c r="E18" s="29">
+        <v>5</v>
+      </c>
+      <c r="F18" s="29">
+        <v>9</v>
+      </c>
+      <c r="G18" s="29">
+        <v>10</v>
+      </c>
+      <c r="H18" s="29">
+        <v>4</v>
+      </c>
+      <c r="I18" s="29">
+        <v>4</v>
+      </c>
+      <c r="J18" s="29">
+        <v>2</v>
+      </c>
+      <c r="K18" s="29">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -6399,14 +9184,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="29">
+        <v>1</v>
+      </c>
+      <c r="H19" s="29">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29">
+        <v>1</v>
+      </c>
+      <c r="K19" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -6414,14 +9215,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="D20" s="29">
+        <v>3</v>
+      </c>
+      <c r="E20" s="29">
+        <v>9</v>
+      </c>
+      <c r="F20" s="29">
+        <v>6</v>
+      </c>
+      <c r="G20" s="29">
+        <v>2</v>
+      </c>
+      <c r="H20" s="29">
+        <v>6</v>
+      </c>
+      <c r="I20" s="29">
+        <v>5</v>
+      </c>
+      <c r="J20" s="29">
+        <v>9</v>
+      </c>
+      <c r="K20" s="29">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -6687,28 +9504,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>6</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19">
+        <v>4</v>
+      </c>
+      <c r="H6" s="19">
+        <v>7</v>
+      </c>
+      <c r="I6" s="19">
+        <v>4</v>
+      </c>
+      <c r="J6" s="19">
+        <v>4</v>
+      </c>
+      <c r="K6" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -6718,14 +9567,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -6733,14 +9598,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>5</v>
+      </c>
+      <c r="E8" s="19">
+        <v>10</v>
+      </c>
+      <c r="F8" s="19">
+        <v>3</v>
+      </c>
+      <c r="G8" s="19">
+        <v>9</v>
+      </c>
+      <c r="H8" s="19">
+        <v>9</v>
+      </c>
+      <c r="I8" s="19">
+        <v>6</v>
+      </c>
+      <c r="J8" s="19">
+        <v>8</v>
+      </c>
+      <c r="K8" s="19">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6752,28 +9633,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>5</v>
+      </c>
+      <c r="E10" s="19">
+        <v>9</v>
+      </c>
+      <c r="F10" s="19">
+        <v>9</v>
+      </c>
+      <c r="G10" s="19">
+        <v>8</v>
+      </c>
+      <c r="H10" s="19">
+        <v>8</v>
+      </c>
+      <c r="I10" s="19">
+        <v>7</v>
+      </c>
+      <c r="J10" s="19">
+        <v>3</v>
+      </c>
+      <c r="K10" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -6783,14 +9696,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -6798,14 +9727,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>4</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4</v>
+      </c>
+      <c r="F12" s="19">
+        <v>6</v>
+      </c>
+      <c r="G12" s="19">
+        <v>9</v>
+      </c>
+      <c r="H12" s="19">
+        <v>7</v>
+      </c>
+      <c r="I12" s="19">
+        <v>6</v>
+      </c>
+      <c r="J12" s="19">
+        <v>6</v>
+      </c>
+      <c r="K12" s="19">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -6817,28 +9762,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>4</v>
+      </c>
+      <c r="E14" s="19">
+        <v>9</v>
+      </c>
+      <c r="F14" s="19">
+        <v>5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>9</v>
+      </c>
+      <c r="H14" s="19">
+        <v>9</v>
+      </c>
+      <c r="I14" s="19">
+        <v>10</v>
+      </c>
+      <c r="J14" s="19">
+        <v>7</v>
+      </c>
+      <c r="K14" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -6848,14 +9825,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -6863,14 +9856,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>3</v>
+      </c>
+      <c r="E16" s="19">
+        <v>9</v>
+      </c>
+      <c r="F16" s="19">
+        <v>8</v>
+      </c>
+      <c r="G16" s="19">
+        <v>9</v>
+      </c>
+      <c r="H16" s="19">
+        <v>9</v>
+      </c>
+      <c r="I16" s="19">
+        <v>6</v>
+      </c>
+      <c r="J16" s="19">
+        <v>8</v>
+      </c>
+      <c r="K16" s="19">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -6882,28 +9891,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>9</v>
+      </c>
+      <c r="E18" s="19">
+        <v>5</v>
+      </c>
+      <c r="F18" s="19">
+        <v>9</v>
+      </c>
+      <c r="G18" s="19">
+        <v>10</v>
+      </c>
+      <c r="H18" s="19">
+        <v>4</v>
+      </c>
+      <c r="I18" s="19">
+        <v>4</v>
+      </c>
+      <c r="J18" s="19">
+        <v>2</v>
+      </c>
+      <c r="K18" s="19">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -6913,14 +9954,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -6928,14 +9985,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19">
+        <v>9</v>
+      </c>
+      <c r="F20" s="19">
+        <v>6</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>6</v>
+      </c>
+      <c r="I20" s="19">
+        <v>5</v>
+      </c>
+      <c r="J20" s="19">
+        <v>9</v>
+      </c>
+      <c r="K20" s="19">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -7132,17 +10205,15 @@
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7258,38 +10329,90 @@
       <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
+      <c r="D5" s="50">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E5" s="37">
+        <v>32</v>
+      </c>
+      <c r="F5" s="38">
+        <v>4</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1</v>
+      </c>
+      <c r="H5" s="38">
+        <v>1</v>
+      </c>
+      <c r="I5" s="38">
+        <v>32</v>
+      </c>
+      <c r="J5" s="38">
+        <v>16</v>
+      </c>
+      <c r="K5" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="L5" s="38">
+        <v>32</v>
+      </c>
+      <c r="M5" s="33">
+        <v>2</v>
+      </c>
+      <c r="N5" s="36">
+        <v>3.125E-2</v>
+      </c>
+      <c r="O5" s="38">
+        <v>64</v>
+      </c>
+      <c r="P5" s="39">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="15"/>
+      <c r="D6" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E6" s="32">
+        <v>8</v>
+      </c>
+      <c r="F6" s="29">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G6" s="30">
+        <v>512</v>
+      </c>
+      <c r="H6" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="I6" s="30">
+        <v>16</v>
+      </c>
+      <c r="J6" s="31">
+        <v>8</v>
+      </c>
+      <c r="K6" s="19">
+        <v>3</v>
+      </c>
+      <c r="L6" s="31">
+        <v>16</v>
+      </c>
+      <c r="M6" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N6" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O6" s="19">
+        <v>1</v>
+      </c>
+      <c r="P6" s="15">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -7299,19 +10422,45 @@
       <c r="C7" s="22">
         <v>1</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="44"/>
+      <c r="D7" s="41">
+        <v>4</v>
+      </c>
+      <c r="E7" s="19">
+        <v>8</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1024</v>
+      </c>
+      <c r="H7" s="29">
+        <v>2.8</v>
+      </c>
+      <c r="I7" s="30">
+        <v>64</v>
+      </c>
+      <c r="J7" s="32">
+        <v>2</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L7" s="29">
+        <v>32</v>
+      </c>
+      <c r="M7" s="32">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="32">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P7" s="44">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -7319,19 +10468,45 @@
       <c r="C8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="44"/>
+      <c r="D8" s="41">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E8" s="32">
+        <v>4</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="H8" s="29">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>4</v>
+      </c>
+      <c r="J8" s="32">
+        <v>8</v>
+      </c>
+      <c r="K8" s="29">
+        <v>3</v>
+      </c>
+      <c r="L8" s="29">
+        <v>256</v>
+      </c>
+      <c r="M8" s="32">
+        <v>4</v>
+      </c>
+      <c r="N8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -7343,38 +10518,90 @@
       <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="43"/>
+      <c r="D9" s="40">
+        <v>4</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="29">
+        <v>2.8</v>
+      </c>
+      <c r="I9" s="29">
+        <v>8</v>
+      </c>
+      <c r="J9" s="32">
+        <v>2</v>
+      </c>
+      <c r="K9" s="19">
+        <v>2</v>
+      </c>
+      <c r="L9" s="29">
+        <v>1024</v>
+      </c>
+      <c r="M9" s="32">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="N9" s="13">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O9" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="P9" s="43">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="44"/>
+      <c r="D10" s="40">
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="29">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1</v>
+      </c>
+      <c r="I10" s="31">
+        <v>8</v>
+      </c>
+      <c r="J10" s="32">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="32">
+        <v>4</v>
+      </c>
+      <c r="N10" s="19">
+        <v>-0.5</v>
+      </c>
+      <c r="O10" s="29">
+        <v>512</v>
+      </c>
+      <c r="P10" s="44">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -7384,19 +10611,45 @@
       <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="34"/>
+      <c r="D11" s="41">
+        <v>0.125</v>
+      </c>
+      <c r="E11" s="19">
+        <v>2</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29">
+        <v>8</v>
+      </c>
+      <c r="J11" s="29">
+        <v>2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L11" s="29">
+        <v>64</v>
+      </c>
+      <c r="M11" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="13">
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="O11" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="P11" s="34">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -7404,19 +10657,45 @@
       <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="43"/>
+      <c r="D12" s="41">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <v>256</v>
+      </c>
+      <c r="G12" s="13">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31">
+        <v>16</v>
+      </c>
+      <c r="J12" s="32">
+        <v>2</v>
+      </c>
+      <c r="K12" s="29">
+        <v>3</v>
+      </c>
+      <c r="L12" s="29">
+        <v>3.125E-2</v>
+      </c>
+      <c r="M12" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O12" s="31">
+        <v>64</v>
+      </c>
+      <c r="P12" s="43">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -7428,38 +10707,90 @@
       <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="45"/>
+      <c r="D13" s="41">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E13" s="29">
+        <v>16</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="30">
+        <v>64</v>
+      </c>
+      <c r="H13" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1</v>
+      </c>
+      <c r="J13" s="32">
+        <v>64</v>
+      </c>
+      <c r="K13" s="19">
+        <v>3</v>
+      </c>
+      <c r="L13" s="29">
+        <v>4</v>
+      </c>
+      <c r="M13" s="13">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="32">
+        <v>1024</v>
+      </c>
+      <c r="P13" s="45">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="15"/>
+      <c r="D14" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="32">
+        <v>512</v>
+      </c>
+      <c r="J14" s="32">
+        <v>4</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L14" s="32">
+        <v>2</v>
+      </c>
+      <c r="M14" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="N14" s="30">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O14" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P14" s="15">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -7469,19 +10800,45 @@
       <c r="C15" s="22">
         <v>1</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="43"/>
+      <c r="D15" s="41">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E15" s="29">
+        <v>4</v>
+      </c>
+      <c r="F15" s="30">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G15" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="29">
+        <v>4</v>
+      </c>
+      <c r="J15" s="29">
+        <v>8</v>
+      </c>
+      <c r="K15" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="L15" s="32">
+        <v>4</v>
+      </c>
+      <c r="M15" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N15" s="30">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O15" s="32">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="P15" s="43">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -7489,19 +10846,45 @@
       <c r="C16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="45"/>
+      <c r="D16" s="40">
+        <v>0.125</v>
+      </c>
+      <c r="E16" s="29">
+        <v>2</v>
+      </c>
+      <c r="F16" s="29">
+        <v>128</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="29">
+        <v>1024</v>
+      </c>
+      <c r="J16" s="32">
+        <v>16</v>
+      </c>
+      <c r="K16" s="29">
+        <v>2</v>
+      </c>
+      <c r="L16" s="29">
+        <v>32</v>
+      </c>
+      <c r="M16" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N16" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="30">
+        <v>1</v>
+      </c>
+      <c r="P16" s="45">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -7513,38 +10896,90 @@
       <c r="C17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="45"/>
+      <c r="D17" s="40">
+        <v>0.125</v>
+      </c>
+      <c r="E17" s="29">
+        <v>32</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G17" s="29">
+        <v>64</v>
+      </c>
+      <c r="H17" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="I17" s="29">
+        <v>16</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2</v>
+      </c>
+      <c r="K17" s="29">
+        <v>3</v>
+      </c>
+      <c r="L17" s="29">
+        <v>4</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="N17" s="19">
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="O17" s="29">
+        <v>4</v>
+      </c>
+      <c r="P17" s="45">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="15"/>
+      <c r="D18" s="40">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E18" s="32">
+        <v>16</v>
+      </c>
+      <c r="F18" s="29">
+        <v>4</v>
+      </c>
+      <c r="G18" s="29">
+        <v>512</v>
+      </c>
+      <c r="H18" s="29">
+        <v>2</v>
+      </c>
+      <c r="I18" s="29">
+        <v>32</v>
+      </c>
+      <c r="J18" s="32">
+        <v>64</v>
+      </c>
+      <c r="K18" s="29">
+        <v>3</v>
+      </c>
+      <c r="L18" s="29">
+        <v>2</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="N18" s="19">
+        <v>-0.125</v>
+      </c>
+      <c r="O18" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P18" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -7554,19 +10989,45 @@
       <c r="C19" s="22">
         <v>1</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="44"/>
+      <c r="D19" s="40">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>32</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="29">
+        <v>512</v>
+      </c>
+      <c r="H19" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="I19" s="13">
+        <v>32</v>
+      </c>
+      <c r="J19" s="31">
+        <v>32</v>
+      </c>
+      <c r="K19" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L19" s="29">
+        <v>16</v>
+      </c>
+      <c r="M19" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="N19" s="13">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O19" s="29">
+        <v>128</v>
+      </c>
+      <c r="P19" s="44">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -7574,19 +11035,45 @@
       <c r="C20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="51"/>
+      <c r="D20" s="42">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E20" s="35">
+        <v>4</v>
+      </c>
+      <c r="F20" s="49">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G20" s="47">
+        <v>1024</v>
+      </c>
+      <c r="H20" s="48">
+        <v>2</v>
+      </c>
+      <c r="I20" s="35">
+        <v>128</v>
+      </c>
+      <c r="J20" s="35">
+        <v>16</v>
+      </c>
+      <c r="K20" s="48">
+        <v>3</v>
+      </c>
+      <c r="L20" s="49">
+        <v>2</v>
+      </c>
+      <c r="M20" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="46">
+        <v>64</v>
+      </c>
+      <c r="P20" s="51">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>

--- a/results_analysis/spark_vertebralColum_02_hold_01_best.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01_best.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA15FAA-646C-46E8-A2D3-B19C7F972AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC643C1-6321-47DE-8386-4DCCDC2027ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="33">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,6 +718,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1003,24 +1027,24 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
@@ -1035,8 +1059,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1130,7 @@
         <v>0.65967741935483903</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1136,7 +1160,7 @@
         <v>0.77903225806451604</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -1169,7 +1193,7 @@
         <v>0.66870967741935505</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -1200,7 +1224,7 @@
         <v>0.78118279569892501</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1235,7 +1259,7 @@
         <v>0.75806451612903203</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1265,7 +1289,7 @@
         <v>0.77376344086021498</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -1298,7 +1322,7 @@
         <v>0.63139784946236599</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -1329,7 +1353,7 @@
         <v>0.80924731182795695</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1388,7 @@
         <v>0.72161290322580596</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1394,7 +1418,7 @@
         <v>0.71086021505376396</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -1427,7 +1451,7 @@
         <v>0.74344086021505396</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -1458,7 +1482,7 @@
         <v>0.78075268817204302</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1517,7 @@
         <v>0.78430107526881698</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -1523,7 +1547,7 @@
         <v>0.69075268817204305</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -1556,7 +1580,7 @@
         <v>0.67129032258064503</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -1587,7 +1611,7 @@
         <v>0.76795698924731204</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1597,98 +1621,166 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="73"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -1698,7 +1790,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -1708,7 +1800,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -1718,7 +1810,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -1728,7 +1820,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -1738,7 +1830,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -1748,7 +1840,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1758,7 +1850,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -1768,7 +1860,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -1778,7 +1870,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -1788,7 +1880,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -1798,7 +1890,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -1808,7 +1900,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -1818,7 +1910,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -1828,7 +1920,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -1838,7 +1930,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -1848,7 +1940,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -1858,7 +1950,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -1868,7 +1960,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -1878,7 +1970,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -1888,7 +1980,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -1898,7 +1990,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -1908,7 +2000,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -1931,31 +2023,31 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>24</v>
       </c>
@@ -1977,8 +2069,8 @@
       <c r="Q1" s="60"/>
       <c r="R1" s="60"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="65" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2104,7 @@
       </c>
       <c r="S3" s="64"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2130,7 +2222,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -2184,7 +2276,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -2241,7 +2333,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2296,7 +2388,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2355,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -2409,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -2466,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -2521,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2580,7 +2672,7 @@
         <v>1024.0009765625</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -2634,7 +2726,7 @@
         <v>128.0009765625</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -2691,7 +2783,7 @@
         <v>1024.0009765625</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -2746,7 +2838,7 @@
         <v>1024.0009765625</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2805,7 +2897,7 @@
         <v>1024.0009765625</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -2859,7 +2951,7 @@
         <v>4.0009765625</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -2916,7 +3008,7 @@
         <v>512.0009765625</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -2971,10 +3063,10 @@
         <v>16.0009765625</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2991,7 +3083,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -3008,7 +3100,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -3025,7 +3117,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -3042,7 +3134,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -3059,7 +3151,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -3076,7 +3168,7 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -3093,7 +3185,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -3110,7 +3202,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -3127,7 +3219,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -3144,7 +3236,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -3161,7 +3253,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -3178,7 +3270,7 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
     </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -3195,7 +3287,7 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -3212,7 +3304,7 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -3229,7 +3321,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -3246,7 +3338,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -3281,20 +3373,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065C56F-AEED-4D36-9CB5-AF6203A45422}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>23</v>
       </c>
@@ -3309,17 +3401,17 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3354,7 +3446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3389,7 +3481,7 @@
         <v>0.45319014270121399</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -3420,7 +3512,7 @@
         <v>0.68083212516010905</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -3453,7 +3545,7 @@
         <v>0.54935289179004698</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -3484,7 +3576,7 @@
         <v>0.80749713301550397</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -3519,7 +3611,7 @@
         <v>0.78701372884506204</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -3550,7 +3642,7 @@
         <v>0.67632722621160601</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -3583,7 +3675,7 @@
         <v>0.50764705882353001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -3614,7 +3706,7 @@
         <v>0.708077386637605</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3649,7 +3741,7 @@
         <v>0.63468013468013496</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -3680,7 +3772,7 @@
         <v>0.75555955431764199</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -3713,7 +3805,7 @@
         <v>0.67755059978641896</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -3744,7 +3836,7 @@
         <v>0.67967853042479898</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -3779,7 +3871,7 @@
         <v>0.72849970863957503</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -3810,7 +3902,7 @@
         <v>0.51125789995477</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -3843,7 +3935,7 @@
         <v>0.68174942357656798</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -3873,6 +3965,168 @@
       <c r="K20" s="56">
         <v>0.85706967213114804</v>
       </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="73"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3884,20 +4138,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF1E589-1659-439B-B1DA-4F9E028A9755}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
@@ -3912,17 +4166,17 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3957,7 +4211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3992,7 +4246,7 @@
         <v>0.66927453769558998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -4023,7 +4277,7 @@
         <v>0.83983926521240004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -4056,7 +4310,7 @@
         <v>0.77197057684862602</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -4087,7 +4341,7 @@
         <v>0.90322580645161299</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -4122,7 +4376,7 @@
         <v>0.89022950819672098</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -4153,7 +4407,7 @@
         <v>0.83363148479427596</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -4186,7 +4440,7 @@
         <v>0.753823529411765</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -4217,7 +4471,7 @@
         <v>0.85115236875800304</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -4252,7 +4506,7 @@
         <v>0.81734006734006703</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -4283,7 +4537,7 @@
         <v>0.87698412698412698</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -4316,7 +4570,7 @@
         <v>0.83864940611237204</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -4347,7 +4601,7 @@
         <v>0.83983926521240004</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4382,7 +4636,7 @@
         <v>0.86087311301509595</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -4413,7 +4667,7 @@
         <v>0.742885021954789</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -4446,7 +4700,7 @@
         <v>0.83243243243243203</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -4476,6 +4730,168 @@
       <c r="K20" s="56">
         <v>0.92853483606557397</v>
       </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="73"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4490,24 +4906,24 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>32</v>
       </c>
@@ -4522,8 +4938,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4558,7 +4974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -4593,7 +5009,7 @@
         <v>8.3323259743533398E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -4623,7 +5039,7 @@
         <v>4.6390885687848597E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -4656,7 +5072,7 @@
         <v>6.4997570086559694E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -4687,7 +5103,7 @@
         <v>5.5765378058801003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -4722,7 +5138,7 @@
         <v>5.3915284650997201E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -4752,7 +5168,7 @@
         <v>4.9332331280531203E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -4785,7 +5201,7 @@
         <v>9.1509014360958998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -4816,7 +5232,7 @@
         <v>4.1732387022643903E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -4851,7 +5267,7 @@
         <v>6.2696451608273404E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -4881,7 +5297,7 @@
         <v>5.2430416881487599E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -4914,7 +5330,7 @@
         <v>4.7476927884935002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -4945,7 +5361,7 @@
         <v>4.5540233929780002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4980,7 +5396,7 @@
         <v>6.1339178963517198E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -5010,7 +5426,7 @@
         <v>5.7329746302888E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -5043,7 +5459,7 @@
         <v>7.3188125904606896E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -5074,7 +5490,7 @@
         <v>5.0968516427447499E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -5084,98 +5500,166 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="73"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -5185,7 +5669,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -5195,7 +5679,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -5205,7 +5689,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -5215,7 +5699,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -5225,7 +5709,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -5235,7 +5719,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5245,7 +5729,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -5255,7 +5739,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -5265,7 +5749,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -5275,7 +5759,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -5285,7 +5769,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -5295,7 +5779,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -5305,7 +5789,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -5315,7 +5799,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -5325,7 +5809,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -5335,7 +5819,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -5345,7 +5829,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -5355,7 +5839,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -5365,7 +5849,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -5375,7 +5859,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -5385,7 +5869,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -5395,7 +5879,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -5418,24 +5902,24 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>30</v>
       </c>
@@ -5450,8 +5934,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5486,7 +5970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5521,7 +6005,7 @@
         <v>0.68279569892473102</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -5551,7 +6035,7 @@
         <v>0.78494623655913998</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -5584,7 +6068,7 @@
         <v>0.67741935483870996</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -5615,7 +6099,7 @@
         <v>0.78494623655913998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -5650,7 +6134,7 @@
         <v>0.76344086021505397</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -5680,7 +6164,7 @@
         <v>0.77419354838709697</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -5713,7 +6197,7 @@
         <v>0.64516129032258096</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -5744,7 +6228,7 @@
         <v>0.80645161290322598</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -5779,7 +6263,7 @@
         <v>0.72043010752688197</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -5809,7 +6293,7 @@
         <v>0.70967741935483897</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -5842,7 +6326,7 @@
         <v>0.75268817204301097</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -5873,7 +6357,7 @@
         <v>0.77419354838709697</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -5908,7 +6392,7 @@
         <v>0.78494623655913998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -5938,7 +6422,7 @@
         <v>0.68817204301075297</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -5971,7 +6455,7 @@
         <v>0.67741935483870996</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -6002,10 +6486,167 @@
         <v>0.76344086021505397</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="73"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -6015,7 +6656,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -6025,7 +6666,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -6035,7 +6676,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -6045,7 +6686,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -6055,7 +6696,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -6065,7 +6706,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -6075,7 +6716,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -6085,7 +6726,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -6095,7 +6736,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -6105,7 +6746,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -6115,7 +6756,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6125,7 +6766,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -6135,7 +6776,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -6145,7 +6786,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -6155,7 +6796,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -6165,7 +6806,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -6188,24 +6829,24 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>29</v>
       </c>
@@ -6220,8 +6861,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6256,7 +6897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6291,7 +6932,7 @@
         <v>0.78494623655913998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -6321,7 +6962,7 @@
         <v>0.87096774193548399</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -6354,7 +6995,7 @@
         <v>0.79569892473118298</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -6385,7 +7026,7 @@
         <v>0.91397849462365599</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6420,7 +7061,7 @@
         <v>0.90322580645161299</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -6450,7 +7091,7 @@
         <v>0.88172043010752699</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -6483,7 +7124,7 @@
         <v>0.80645161290322598</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -6514,7 +7155,7 @@
         <v>0.89247311827956999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -6549,7 +7190,7 @@
         <v>0.84946236559139798</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -6579,7 +7220,7 @@
         <v>0.91397849462365599</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -6612,7 +7253,7 @@
         <v>0.86021505376344098</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -6643,7 +7284,7 @@
         <v>0.87096774193548399</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -6678,7 +7319,7 @@
         <v>0.88172043010752699</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -6708,7 +7349,7 @@
         <v>0.81720430107526898</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -6741,7 +7382,7 @@
         <v>0.83870967741935498</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -6772,7 +7413,7 @@
         <v>0.93548387096774199</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -6782,98 +7423,166 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="73"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -6883,7 +7592,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -6893,7 +7602,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -6903,7 +7612,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -6913,7 +7622,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -6923,7 +7632,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -6933,7 +7642,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -6943,7 +7652,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -6953,7 +7662,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -6963,7 +7672,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -6973,7 +7682,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -6983,7 +7692,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -6993,7 +7702,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -7003,7 +7712,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -7013,7 +7722,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -7023,7 +7732,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -7033,7 +7742,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -7043,7 +7752,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -7053,7 +7762,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -7063,7 +7772,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -7073,7 +7782,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -7083,7 +7792,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -7093,7 +7802,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -7116,24 +7825,24 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
@@ -7148,8 +7857,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -7184,7 +7893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7219,7 +7928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -7249,7 +7958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -7282,7 +7991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -7313,7 +8022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -7348,7 +8057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -7378,7 +8087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -7411,7 +8120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -7442,7 +8151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -7477,7 +8186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -7507,7 +8216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -7540,7 +8249,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -7571,7 +8280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -7606,7 +8315,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -7636,7 +8345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -7669,7 +8378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -7700,10 +8409,167 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="73"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7713,7 +8579,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -7723,7 +8589,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -7733,7 +8599,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -7743,7 +8609,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -7753,7 +8619,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -7763,7 +8629,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -7773,7 +8639,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -7783,7 +8649,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -7793,7 +8659,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -7803,7 +8669,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -7813,7 +8679,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -7823,7 +8689,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -7833,7 +8699,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -7843,7 +8709,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -7853,7 +8719,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -7863,7 +8729,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -7886,24 +8752,24 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>27</v>
       </c>
@@ -7918,8 +8784,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -7954,7 +8820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7989,7 +8855,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -8019,7 +8885,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -8052,7 +8918,7 @@
         <v>13.39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -8083,7 +8949,7 @@
         <v>25.84</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -8118,7 +8984,7 @@
         <v>55.18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -8148,7 +9014,7 @@
         <v>31.95</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -8181,7 +9047,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -8212,7 +9078,7 @@
         <v>48.87</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -8247,7 +9113,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -8277,7 +9143,7 @@
         <v>11.45</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -8310,7 +9176,7 @@
         <v>41.63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -8341,7 +9207,7 @@
         <v>35.119999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -8376,7 +9242,7 @@
         <v>103.8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -8406,7 +9272,7 @@
         <v>33.69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -8439,7 +9305,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -8470,10 +9336,167 @@
         <v>39.64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="73"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -8483,7 +9506,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -8493,7 +9516,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -8503,7 +9526,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -8513,7 +9536,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8523,7 +9546,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8533,7 +9556,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -8543,7 +9566,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -8553,7 +9576,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -8563,7 +9586,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -8573,7 +9596,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -8583,7 +9606,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -8593,7 +9616,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -8603,7 +9626,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -8613,7 +9636,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -8623,7 +9646,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -8633,7 +9656,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -8656,24 +9679,24 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
@@ -8688,8 +9711,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -8724,7 +9747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -8759,7 +9782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -8789,7 +9812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -8822,7 +9845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -8853,7 +9876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -8888,7 +9911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -8918,7 +9941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -8951,7 +9974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -8982,7 +10005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -9017,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -9047,7 +10070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -9080,7 +10103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -9111,7 +10134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -9146,7 +10169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -9176,7 +10199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -9209,7 +10232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -9240,10 +10263,167 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="73"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -9253,7 +10433,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -9263,7 +10443,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -9273,7 +10453,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -9283,7 +10463,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -9293,7 +10473,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -9303,7 +10483,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -9313,7 +10493,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -9323,7 +10503,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -9333,7 +10513,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -9343,7 +10523,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -9353,7 +10533,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -9363,7 +10543,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -9373,7 +10553,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -9383,7 +10563,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -9393,7 +10573,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -9403,7 +10583,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -9426,24 +10606,24 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>24</v>
       </c>
@@ -9458,8 +10638,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -9494,7 +10674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -9529,7 +10709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -9559,7 +10739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -9592,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -9623,7 +10803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -9658,7 +10838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -9688,7 +10868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -9721,7 +10901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -9752,7 +10932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -9787,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -9817,7 +10997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -9850,7 +11030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -9881,7 +11061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -9916,7 +11096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -9946,7 +11126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -9979,7 +11159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -10010,10 +11190,167 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="73"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -10023,7 +11360,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -10033,7 +11370,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -10043,7 +11380,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -10053,7 +11390,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -10063,7 +11400,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -10073,7 +11410,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -10083,7 +11420,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -10093,7 +11430,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -10103,7 +11440,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -10113,7 +11450,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -10123,7 +11460,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -10133,7 +11470,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -10143,7 +11480,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -10153,7 +11490,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -10163,7 +11500,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -10173,7 +11510,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -10196,28 +11533,28 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>25</v>
       </c>
@@ -10237,8 +11574,8 @@
       <c r="O1" s="60"/>
       <c r="P1" s="60"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
@@ -10269,7 +11606,7 @@
       </c>
       <c r="P3" s="64"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -10319,7 +11656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -10369,7 +11706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>12</v>
@@ -10414,7 +11751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -10462,7 +11799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="23" t="s">
@@ -10508,7 +11845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -10558,7 +11895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>12</v>
@@ -10603,7 +11940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -10651,7 +11988,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="23" t="s">
@@ -10697,7 +12034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -10747,7 +12084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="22" t="s">
         <v>12</v>
@@ -10792,7 +12129,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -10840,7 +12177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="23" t="s">
@@ -10886,7 +12223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -10936,7 +12273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="22" t="s">
         <v>12</v>
@@ -10981,7 +12318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -11029,7 +12366,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="23" t="s">
@@ -11075,10 +12412,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -11092,7 +12429,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -11106,7 +12443,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -11120,7 +12457,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -11134,7 +12471,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -11148,7 +12485,7 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -11162,7 +12499,7 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -11176,7 +12513,7 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -11190,7 +12527,7 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -11204,7 +12541,7 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -11218,7 +12555,7 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -11232,7 +12569,7 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -11246,7 +12583,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -11260,7 +12597,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -11274,7 +12611,7 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -11288,7 +12625,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -11302,7 +12639,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>

--- a/results_analysis/spark_vertebralColum_02_hold_01_best.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01_best.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC643C1-6321-47DE-8386-4DCCDC2027ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67BC084-E3D9-49BA-8D88-250617D5A2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -702,24 +702,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,6 +724,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,19 +1045,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1662,28 +1662,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="D23" s="60">
+        <v>0.685161290322581</v>
+      </c>
+      <c r="E23" s="61">
+        <v>0.73193548387096796</v>
+      </c>
+      <c r="F23" s="61">
+        <v>0.74279569892473096</v>
+      </c>
+      <c r="G23" s="61">
+        <v>0.75107526881720399</v>
+      </c>
+      <c r="H23" s="61">
+        <v>0.75817204301075303</v>
+      </c>
+      <c r="I23" s="61">
+        <v>0.79806451612903195</v>
+      </c>
+      <c r="J23" s="61">
+        <v>0.66118279569892502</v>
+      </c>
+      <c r="K23" s="62">
+        <v>0.77903225806451604</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="D24" s="63">
+        <v>0.67548387096774198</v>
+      </c>
+      <c r="E24" s="64">
+        <v>0.76494623655913996</v>
+      </c>
+      <c r="F24" s="64">
+        <v>0.70440860215053802</v>
+      </c>
+      <c r="G24" s="64">
+        <v>0.76763440860215004</v>
+      </c>
+      <c r="H24" s="64">
+        <v>0.74559139784946205</v>
+      </c>
+      <c r="I24" s="64">
+        <v>0.79720430107526896</v>
+      </c>
+      <c r="J24" s="64">
+        <v>0.64634408602150495</v>
+      </c>
+      <c r="K24" s="65">
+        <v>0.78118279569892501</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1693,28 +1725,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
+      <c r="D25" s="60">
+        <v>0.77903225806451604</v>
+      </c>
+      <c r="E25" s="61">
+        <v>0.74677419354838703</v>
+      </c>
+      <c r="F25" s="61">
+        <v>0.77247311827956999</v>
+      </c>
+      <c r="G25" s="61">
+        <v>0.75913978494623702</v>
+      </c>
+      <c r="H25" s="61">
+        <v>0.73258064516128996</v>
+      </c>
+      <c r="I25" s="61">
+        <v>0.80365591397849501</v>
+      </c>
+      <c r="J25" s="61">
+        <v>0.71860215053763399</v>
+      </c>
+      <c r="K25" s="62">
+        <v>0.77376344086021498</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+      <c r="D26" s="63">
+        <v>0.65494623655913997</v>
+      </c>
+      <c r="E26" s="64">
+        <v>0.71817204301075299</v>
+      </c>
+      <c r="F26" s="64">
+        <v>0.74817204301075302</v>
+      </c>
+      <c r="G26" s="64">
+        <v>0.79161290322580602</v>
+      </c>
+      <c r="H26" s="64">
+        <v>0.695268817204301</v>
+      </c>
+      <c r="I26" s="64">
+        <v>0.80290322580645102</v>
+      </c>
+      <c r="J26" s="64">
+        <v>0.68096774193548404</v>
+      </c>
+      <c r="K26" s="65">
+        <v>0.80924731182795695</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -1724,14 +1788,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
+      <c r="D27" s="60">
+        <v>0.74924731182795701</v>
+      </c>
+      <c r="E27" s="61">
+        <v>0.77225806451612899</v>
+      </c>
+      <c r="F27" s="61">
+        <v>0.75978494623655901</v>
+      </c>
+      <c r="G27" s="61">
+        <v>0.77064516129032301</v>
+      </c>
+      <c r="H27" s="61">
+        <v>0.76451612903225796</v>
+      </c>
+      <c r="I27" s="61">
+        <v>0.76591397849462395</v>
+      </c>
+      <c r="J27" s="61">
+        <v>0.75440860215053795</v>
+      </c>
+      <c r="K27" s="62">
+        <v>0.72161290322580596</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -1739,14 +1819,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
+      <c r="D28" s="63">
+        <v>0.70580645161290301</v>
+      </c>
+      <c r="E28" s="64">
+        <v>0.76258064516128998</v>
+      </c>
+      <c r="F28" s="64">
+        <v>0.771397849462365</v>
+      </c>
+      <c r="G28" s="64">
+        <v>0.728602150537634</v>
+      </c>
+      <c r="H28" s="64">
+        <v>0.71935483870967698</v>
+      </c>
+      <c r="I28" s="64">
+        <v>0.760752688172043</v>
+      </c>
+      <c r="J28" s="64">
+        <v>0.69849462365591397</v>
+      </c>
+      <c r="K28" s="65">
+        <v>0.78075268817204302</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -1756,14 +1852,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="73"/>
+      <c r="D29" s="66">
+        <v>0.67612903225806498</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.72010752688171997</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.749892473118279</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.79978494623655905</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.79806451612903195</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.76365591397849497</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.74634408602150504</v>
+      </c>
+      <c r="K29" s="67">
+        <v>0.78430107526881698</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -1771,14 +1883,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="D30" s="63">
+        <v>0.684408602150538</v>
+      </c>
+      <c r="E30" s="64">
+        <v>0.71107526881720395</v>
+      </c>
+      <c r="F30" s="64">
+        <v>0.74</v>
+      </c>
+      <c r="G30" s="64">
+        <v>0.64440860215053797</v>
+      </c>
+      <c r="H30" s="64">
+        <v>0.70924731182795697</v>
+      </c>
+      <c r="I30" s="64">
+        <v>0.77516129032258096</v>
+      </c>
+      <c r="J30" s="64">
+        <v>0.75967741935483901</v>
+      </c>
+      <c r="K30" s="65">
+        <v>0.76795698924731204</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -2048,61 +2176,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="62" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="62" t="s">
+      <c r="G3" s="71"/>
+      <c r="H3" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="62" t="s">
+      <c r="I3" s="71"/>
+      <c r="J3" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="62" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="62" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="62" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="62" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="64"/>
+      <c r="S3" s="72"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3387,19 +3515,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4008,14 +4136,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -4023,14 +4151,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -4040,14 +4168,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -4055,14 +4183,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -4072,14 +4200,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -4087,14 +4215,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -4104,14 +4232,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="72"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="73"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -4119,14 +4247,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4152,19 +4280,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4773,14 +4901,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -4788,14 +4916,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -4805,14 +4933,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -4820,14 +4948,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -4837,14 +4965,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -4852,14 +4980,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -4869,14 +4997,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="72"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="73"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -4884,14 +5012,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4906,7 +5034,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4924,19 +5052,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5541,28 +5669,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="D23" s="60">
+        <v>7.7086767362122194E-2</v>
+      </c>
+      <c r="E23" s="61">
+        <v>5.8741115055253097E-2</v>
+      </c>
+      <c r="F23" s="61">
+        <v>5.1753004881922603E-2</v>
+      </c>
+      <c r="G23" s="61">
+        <v>4.7387179940584903E-2</v>
+      </c>
+      <c r="H23" s="61">
+        <v>5.5030045905336201E-2</v>
+      </c>
+      <c r="I23" s="61">
+        <v>4.4362909896887799E-2</v>
+      </c>
+      <c r="J23" s="61">
+        <v>9.2264181074130105E-2</v>
+      </c>
+      <c r="K23" s="62">
+        <v>4.6390885687848597E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="D24" s="63">
+        <v>7.5235915786943899E-2</v>
+      </c>
+      <c r="E24" s="64">
+        <v>5.94872147094943E-2</v>
+      </c>
+      <c r="F24" s="64">
+        <v>6.0720600412567598E-2</v>
+      </c>
+      <c r="G24" s="64">
+        <v>5.5818128905881101E-2</v>
+      </c>
+      <c r="H24" s="64">
+        <v>5.8819893751918498E-2</v>
+      </c>
+      <c r="I24" s="64">
+        <v>6.5842418956511703E-2</v>
+      </c>
+      <c r="J24" s="64">
+        <v>0.10082161646912401</v>
+      </c>
+      <c r="K24" s="65">
+        <v>5.5765378058801003E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -5572,28 +5732,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
+      <c r="D25" s="60">
+        <v>4.7534823076289298E-2</v>
+      </c>
+      <c r="E25" s="61">
+        <v>4.7189603867353103E-2</v>
+      </c>
+      <c r="F25" s="61">
+        <v>5.1979078308591699E-2</v>
+      </c>
+      <c r="G25" s="61">
+        <v>5.8755925164085399E-2</v>
+      </c>
+      <c r="H25" s="61">
+        <v>6.1980040662734603E-2</v>
+      </c>
+      <c r="I25" s="61">
+        <v>3.2008009499217401E-2</v>
+      </c>
+      <c r="J25" s="61">
+        <v>6.2288297176594502E-2</v>
+      </c>
+      <c r="K25" s="62">
+        <v>4.9332331280531203E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+      <c r="D26" s="63">
+        <v>9.4596683952728605E-2</v>
+      </c>
+      <c r="E26" s="64">
+        <v>5.36284827251296E-2</v>
+      </c>
+      <c r="F26" s="64">
+        <v>5.3385879649252801E-2</v>
+      </c>
+      <c r="G26" s="64">
+        <v>4.7838630347620599E-2</v>
+      </c>
+      <c r="H26" s="64">
+        <v>5.2393093153360298E-2</v>
+      </c>
+      <c r="I26" s="64">
+        <v>3.7281468128294401E-2</v>
+      </c>
+      <c r="J26" s="64">
+        <v>8.3668466355564602E-2</v>
+      </c>
+      <c r="K26" s="65">
+        <v>4.1732387022643903E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -5603,14 +5795,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
+      <c r="D27" s="60">
+        <v>5.0524344899193302E-2</v>
+      </c>
+      <c r="E27" s="61">
+        <v>5.54925593284228E-2</v>
+      </c>
+      <c r="F27" s="61">
+        <v>4.4327092572077897E-2</v>
+      </c>
+      <c r="G27" s="61">
+        <v>5.1648529574585302E-2</v>
+      </c>
+      <c r="H27" s="61">
+        <v>6.7566634833870196E-2</v>
+      </c>
+      <c r="I27" s="61">
+        <v>5.2496309155074299E-2</v>
+      </c>
+      <c r="J27" s="61">
+        <v>5.3898386091937797E-2</v>
+      </c>
+      <c r="K27" s="62">
+        <v>6.2696451608273404E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -5618,14 +5826,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
+      <c r="D28" s="63">
+        <v>5.40887302849275E-2</v>
+      </c>
+      <c r="E28" s="64">
+        <v>6.16214599342867E-2</v>
+      </c>
+      <c r="F28" s="64">
+        <v>4.8992626881266703E-2</v>
+      </c>
+      <c r="G28" s="64">
+        <v>7.3774044907824202E-2</v>
+      </c>
+      <c r="H28" s="64">
+        <v>6.5726668520094803E-2</v>
+      </c>
+      <c r="I28" s="64">
+        <v>5.6120275951422403E-2</v>
+      </c>
+      <c r="J28" s="64">
+        <v>7.4886459201247604E-2</v>
+      </c>
+      <c r="K28" s="65">
+        <v>4.5540233929780002E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -5635,14 +5859,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="73"/>
+      <c r="D29" s="66">
+        <v>9.2274117084807802E-2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>5.8824559543233401E-2</v>
+      </c>
+      <c r="F29" s="16">
+        <v>6.1885094088541197E-2</v>
+      </c>
+      <c r="G29" s="16">
+        <v>4.8251865625684197E-2</v>
+      </c>
+      <c r="H29" s="16">
+        <v>3.4702637451704897E-2</v>
+      </c>
+      <c r="I29" s="16">
+        <v>5.3272001789947003E-2</v>
+      </c>
+      <c r="J29" s="16">
+        <v>4.9643253280377803E-2</v>
+      </c>
+      <c r="K29" s="67">
+        <v>6.1339178963517198E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -5650,14 +5890,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="D30" s="63">
+        <v>7.2854176458645198E-2</v>
+      </c>
+      <c r="E30" s="64">
+        <v>6.1583069125771897E-2</v>
+      </c>
+      <c r="F30" s="64">
+        <v>5.6493723529260603E-2</v>
+      </c>
+      <c r="G30" s="64">
+        <v>0.11951481338089801</v>
+      </c>
+      <c r="H30" s="64">
+        <v>9.5430371410242798E-2</v>
+      </c>
+      <c r="I30" s="64">
+        <v>4.3873581830172398E-2</v>
+      </c>
+      <c r="J30" s="64">
+        <v>6.5972749495719102E-2</v>
+      </c>
+      <c r="K30" s="65">
+        <v>5.0968516427447499E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -5920,19 +6176,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6528,28 +6784,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -6559,28 +6815,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -6590,14 +6846,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -6605,14 +6861,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -6622,14 +6878,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="72"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="73"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -6637,14 +6893,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -6847,19 +7103,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7464,28 +7720,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -7495,28 +7751,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -7526,14 +7782,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -7541,14 +7797,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -7558,14 +7814,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="72"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="73"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -7573,14 +7829,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -7825,7 +8081,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7834,28 +8090,26 @@
     <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8451,28 +8705,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="D23" s="60">
+        <v>10</v>
+      </c>
+      <c r="E23" s="61">
+        <v>22</v>
+      </c>
+      <c r="F23" s="61">
+        <v>32</v>
+      </c>
+      <c r="G23" s="61">
+        <v>30</v>
+      </c>
+      <c r="H23" s="61">
+        <v>30</v>
+      </c>
+      <c r="I23" s="61">
+        <v>173</v>
+      </c>
+      <c r="J23" s="61">
+        <v>6</v>
+      </c>
+      <c r="K23" s="62">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="D24" s="63">
+        <v>14</v>
+      </c>
+      <c r="E24" s="64">
+        <v>28</v>
+      </c>
+      <c r="F24" s="64">
+        <v>20</v>
+      </c>
+      <c r="G24" s="64">
+        <v>28</v>
+      </c>
+      <c r="H24" s="64">
+        <v>21</v>
+      </c>
+      <c r="I24" s="64">
+        <v>173</v>
+      </c>
+      <c r="J24" s="64">
+        <v>6</v>
+      </c>
+      <c r="K24" s="65">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -8482,28 +8768,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
+      <c r="D25" s="60">
+        <v>39</v>
+      </c>
+      <c r="E25" s="61">
+        <v>45</v>
+      </c>
+      <c r="F25" s="61">
+        <v>35</v>
+      </c>
+      <c r="G25" s="61">
+        <v>30</v>
+      </c>
+      <c r="H25" s="61">
+        <v>20</v>
+      </c>
+      <c r="I25" s="61">
+        <v>173</v>
+      </c>
+      <c r="J25" s="61">
+        <v>13</v>
+      </c>
+      <c r="K25" s="62">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+      <c r="D26" s="63">
+        <v>7</v>
+      </c>
+      <c r="E26" s="64">
+        <v>41</v>
+      </c>
+      <c r="F26" s="64">
+        <v>35</v>
+      </c>
+      <c r="G26" s="64">
+        <v>45</v>
+      </c>
+      <c r="H26" s="64">
+        <v>6</v>
+      </c>
+      <c r="I26" s="64">
+        <v>173</v>
+      </c>
+      <c r="J26" s="64">
+        <v>9</v>
+      </c>
+      <c r="K26" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -8513,14 +8831,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
+      <c r="D27" s="60">
+        <v>19</v>
+      </c>
+      <c r="E27" s="61">
+        <v>15</v>
+      </c>
+      <c r="F27" s="61">
+        <v>20</v>
+      </c>
+      <c r="G27" s="61">
+        <v>29</v>
+      </c>
+      <c r="H27" s="61">
+        <v>18</v>
+      </c>
+      <c r="I27" s="61">
+        <v>17</v>
+      </c>
+      <c r="J27" s="61">
+        <v>20</v>
+      </c>
+      <c r="K27" s="62">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -8528,14 +8862,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
+      <c r="D28" s="63">
+        <v>12</v>
+      </c>
+      <c r="E28" s="64">
+        <v>23</v>
+      </c>
+      <c r="F28" s="64">
+        <v>37</v>
+      </c>
+      <c r="G28" s="64">
+        <v>16</v>
+      </c>
+      <c r="H28" s="64">
+        <v>16</v>
+      </c>
+      <c r="I28" s="64">
+        <v>16</v>
+      </c>
+      <c r="J28" s="64">
+        <v>7</v>
+      </c>
+      <c r="K28" s="65">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -8545,14 +8895,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="73"/>
+      <c r="D29" s="66">
+        <v>8</v>
+      </c>
+      <c r="E29" s="16">
+        <v>20</v>
+      </c>
+      <c r="F29" s="16">
+        <v>37</v>
+      </c>
+      <c r="G29" s="16">
+        <v>112</v>
+      </c>
+      <c r="H29" s="16">
+        <v>141</v>
+      </c>
+      <c r="I29" s="16">
+        <v>29</v>
+      </c>
+      <c r="J29" s="16">
+        <v>16</v>
+      </c>
+      <c r="K29" s="67">
+        <v>91</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -8560,14 +8926,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="D30" s="63">
+        <v>12</v>
+      </c>
+      <c r="E30" s="64">
+        <v>33</v>
+      </c>
+      <c r="F30" s="64">
+        <v>35</v>
+      </c>
+      <c r="G30" s="64">
+        <v>9</v>
+      </c>
+      <c r="H30" s="64">
+        <v>17</v>
+      </c>
+      <c r="I30" s="64">
+        <v>52</v>
+      </c>
+      <c r="J30" s="64">
+        <v>25</v>
+      </c>
+      <c r="K30" s="65">
+        <v>38</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -8751,8 +9133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8761,28 +9143,26 @@
     <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9378,28 +9758,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="D23" s="60">
+        <v>9.99</v>
+      </c>
+      <c r="E23" s="61">
+        <v>21.52</v>
+      </c>
+      <c r="F23" s="61">
+        <v>21.58</v>
+      </c>
+      <c r="G23" s="61">
+        <v>29.36</v>
+      </c>
+      <c r="H23" s="61">
+        <v>29.41</v>
+      </c>
+      <c r="I23" s="61">
+        <v>162.65</v>
+      </c>
+      <c r="J23" s="61">
+        <v>6.1</v>
+      </c>
+      <c r="K23" s="62">
+        <v>61.4</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="D24" s="63">
+        <v>13.09</v>
+      </c>
+      <c r="E24" s="64">
+        <v>24.07</v>
+      </c>
+      <c r="F24" s="64">
+        <v>14.74</v>
+      </c>
+      <c r="G24" s="64">
+        <v>28.7</v>
+      </c>
+      <c r="H24" s="64">
+        <v>20.6</v>
+      </c>
+      <c r="I24" s="64">
+        <v>169.68</v>
+      </c>
+      <c r="J24" s="64">
+        <v>6.17</v>
+      </c>
+      <c r="K24" s="65">
+        <v>25.84</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -9409,28 +9821,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
+      <c r="D25" s="60">
+        <v>38</v>
+      </c>
+      <c r="E25" s="61">
+        <v>41.7</v>
+      </c>
+      <c r="F25" s="61">
+        <v>38.61</v>
+      </c>
+      <c r="G25" s="61">
+        <v>29.96</v>
+      </c>
+      <c r="H25" s="61">
+        <v>23.44</v>
+      </c>
+      <c r="I25" s="61">
+        <v>173</v>
+      </c>
+      <c r="J25" s="61">
+        <v>12.35</v>
+      </c>
+      <c r="K25" s="62">
+        <v>31.95</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+      <c r="D26" s="63">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E26" s="64">
+        <v>39.92</v>
+      </c>
+      <c r="F26" s="64">
+        <v>30.7</v>
+      </c>
+      <c r="G26" s="64">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="H26" s="64">
+        <v>6.89</v>
+      </c>
+      <c r="I26" s="64">
+        <v>173</v>
+      </c>
+      <c r="J26" s="64">
+        <v>7.45</v>
+      </c>
+      <c r="K26" s="65">
+        <v>48.87</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -9440,14 +9884,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
+      <c r="D27" s="60">
+        <v>18.5</v>
+      </c>
+      <c r="E27" s="61">
+        <v>13.26</v>
+      </c>
+      <c r="F27" s="61">
+        <v>22</v>
+      </c>
+      <c r="G27" s="61">
+        <v>27.58</v>
+      </c>
+      <c r="H27" s="61">
+        <v>15.92</v>
+      </c>
+      <c r="I27" s="61">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="J27" s="61">
+        <v>20.58</v>
+      </c>
+      <c r="K27" s="62">
+        <v>12.36</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -9455,14 +9915,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
+      <c r="D28" s="63">
+        <v>15.57</v>
+      </c>
+      <c r="E28" s="64">
+        <v>18.5</v>
+      </c>
+      <c r="F28" s="64">
+        <v>35.68</v>
+      </c>
+      <c r="G28" s="64">
+        <v>12.53</v>
+      </c>
+      <c r="H28" s="64">
+        <v>12.06</v>
+      </c>
+      <c r="I28" s="64">
+        <v>13.51</v>
+      </c>
+      <c r="J28" s="64">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="K28" s="65">
+        <v>35.119999999999997</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -9472,14 +9948,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="73"/>
+      <c r="D29" s="66">
+        <v>7.58</v>
+      </c>
+      <c r="E29" s="16">
+        <v>27.38</v>
+      </c>
+      <c r="F29" s="16">
+        <v>34.81</v>
+      </c>
+      <c r="G29" s="16">
+        <v>94.86</v>
+      </c>
+      <c r="H29" s="16">
+        <v>144.81</v>
+      </c>
+      <c r="I29" s="16">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J29" s="16">
+        <v>13.97</v>
+      </c>
+      <c r="K29" s="67">
+        <v>103.8</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -9487,14 +9979,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="D30" s="63">
+        <v>11.86</v>
+      </c>
+      <c r="E30" s="64">
+        <v>30.01</v>
+      </c>
+      <c r="F30" s="64">
+        <v>37.33</v>
+      </c>
+      <c r="G30" s="64">
+        <v>7.69</v>
+      </c>
+      <c r="H30" s="64">
+        <v>13.32</v>
+      </c>
+      <c r="I30" s="64">
+        <v>52.45</v>
+      </c>
+      <c r="J30" s="64">
+        <v>21.04</v>
+      </c>
+      <c r="K30" s="65">
+        <v>39.64</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -9679,7 +10187,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9688,28 +10196,29 @@
     <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10305,28 +10814,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="D23" s="60">
+        <v>3</v>
+      </c>
+      <c r="E23" s="61">
+        <v>6</v>
+      </c>
+      <c r="F23" s="61">
+        <v>4</v>
+      </c>
+      <c r="G23" s="61">
+        <v>4</v>
+      </c>
+      <c r="H23" s="61">
+        <v>7</v>
+      </c>
+      <c r="I23" s="61">
+        <v>4</v>
+      </c>
+      <c r="J23" s="61">
+        <v>4</v>
+      </c>
+      <c r="K23" s="62">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="D24" s="63">
+        <v>5</v>
+      </c>
+      <c r="E24" s="64">
+        <v>10</v>
+      </c>
+      <c r="F24" s="64">
+        <v>1</v>
+      </c>
+      <c r="G24" s="64">
+        <v>9</v>
+      </c>
+      <c r="H24" s="64">
+        <v>9</v>
+      </c>
+      <c r="I24" s="64">
+        <v>6</v>
+      </c>
+      <c r="J24" s="64">
+        <v>1</v>
+      </c>
+      <c r="K24" s="65">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -10336,28 +10877,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
+      <c r="D25" s="60">
+        <v>5</v>
+      </c>
+      <c r="E25" s="61">
+        <v>1</v>
+      </c>
+      <c r="F25" s="61">
+        <v>9</v>
+      </c>
+      <c r="G25" s="61">
+        <v>8</v>
+      </c>
+      <c r="H25" s="61">
+        <v>8</v>
+      </c>
+      <c r="I25" s="61">
+        <v>7</v>
+      </c>
+      <c r="J25" s="61">
+        <v>1</v>
+      </c>
+      <c r="K25" s="62">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+      <c r="D26" s="63">
+        <v>4</v>
+      </c>
+      <c r="E26" s="64">
+        <v>1</v>
+      </c>
+      <c r="F26" s="64">
+        <v>6</v>
+      </c>
+      <c r="G26" s="64">
+        <v>9</v>
+      </c>
+      <c r="H26" s="64">
+        <v>7</v>
+      </c>
+      <c r="I26" s="64">
+        <v>1</v>
+      </c>
+      <c r="J26" s="64">
+        <v>6</v>
+      </c>
+      <c r="K26" s="65">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -10367,14 +10940,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
+      <c r="D27" s="60">
+        <v>4</v>
+      </c>
+      <c r="E27" s="61">
+        <v>9</v>
+      </c>
+      <c r="F27" s="61">
+        <v>5</v>
+      </c>
+      <c r="G27" s="61">
+        <v>9</v>
+      </c>
+      <c r="H27" s="61">
+        <v>9</v>
+      </c>
+      <c r="I27" s="61">
+        <v>10</v>
+      </c>
+      <c r="J27" s="61">
+        <v>7</v>
+      </c>
+      <c r="K27" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -10382,14 +10971,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
+      <c r="D28" s="63">
+        <v>1</v>
+      </c>
+      <c r="E28" s="64">
+        <v>9</v>
+      </c>
+      <c r="F28" s="64">
+        <v>8</v>
+      </c>
+      <c r="G28" s="64">
+        <v>9</v>
+      </c>
+      <c r="H28" s="64">
+        <v>9</v>
+      </c>
+      <c r="I28" s="64">
+        <v>6</v>
+      </c>
+      <c r="J28" s="64">
+        <v>8</v>
+      </c>
+      <c r="K28" s="65">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -10399,14 +11004,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="73"/>
+      <c r="D29" s="66">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
+        <v>5</v>
+      </c>
+      <c r="F29" s="16">
+        <v>9</v>
+      </c>
+      <c r="G29" s="16">
+        <v>10</v>
+      </c>
+      <c r="H29" s="16">
+        <v>1</v>
+      </c>
+      <c r="I29" s="16">
+        <v>4</v>
+      </c>
+      <c r="J29" s="16">
+        <v>2</v>
+      </c>
+      <c r="K29" s="67">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -10414,14 +11035,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="D30" s="63">
+        <v>1</v>
+      </c>
+      <c r="E30" s="64">
+        <v>9</v>
+      </c>
+      <c r="F30" s="64">
+        <v>6</v>
+      </c>
+      <c r="G30" s="64">
+        <v>2</v>
+      </c>
+      <c r="H30" s="64">
+        <v>6</v>
+      </c>
+      <c r="I30" s="64">
+        <v>5</v>
+      </c>
+      <c r="J30" s="64">
+        <v>9</v>
+      </c>
+      <c r="K30" s="65">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -10606,7 +11243,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10615,28 +11252,29 @@
     <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11232,28 +11870,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="D23" s="60">
+        <v>3</v>
+      </c>
+      <c r="E23" s="61">
+        <v>6</v>
+      </c>
+      <c r="F23" s="61">
+        <v>4</v>
+      </c>
+      <c r="G23" s="61">
+        <v>4</v>
+      </c>
+      <c r="H23" s="61">
+        <v>7</v>
+      </c>
+      <c r="I23" s="61">
+        <v>4</v>
+      </c>
+      <c r="J23" s="61">
+        <v>4</v>
+      </c>
+      <c r="K23" s="62">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="D24" s="63">
+        <v>5</v>
+      </c>
+      <c r="E24" s="64">
+        <v>10</v>
+      </c>
+      <c r="F24" s="64">
+        <v>1</v>
+      </c>
+      <c r="G24" s="64">
+        <v>9</v>
+      </c>
+      <c r="H24" s="64">
+        <v>9</v>
+      </c>
+      <c r="I24" s="64">
+        <v>6</v>
+      </c>
+      <c r="J24" s="64">
+        <v>1</v>
+      </c>
+      <c r="K24" s="65">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -11263,28 +11933,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
+      <c r="D25" s="60">
+        <v>5</v>
+      </c>
+      <c r="E25" s="61">
+        <v>1</v>
+      </c>
+      <c r="F25" s="61">
+        <v>9</v>
+      </c>
+      <c r="G25" s="61">
+        <v>8</v>
+      </c>
+      <c r="H25" s="61">
+        <v>8</v>
+      </c>
+      <c r="I25" s="61">
+        <v>7</v>
+      </c>
+      <c r="J25" s="61">
+        <v>1</v>
+      </c>
+      <c r="K25" s="62">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+      <c r="D26" s="63">
+        <v>4</v>
+      </c>
+      <c r="E26" s="64">
+        <v>1</v>
+      </c>
+      <c r="F26" s="64">
+        <v>6</v>
+      </c>
+      <c r="G26" s="64">
+        <v>9</v>
+      </c>
+      <c r="H26" s="64">
+        <v>7</v>
+      </c>
+      <c r="I26" s="64">
+        <v>1</v>
+      </c>
+      <c r="J26" s="64">
+        <v>6</v>
+      </c>
+      <c r="K26" s="65">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -11294,14 +11996,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
+      <c r="D27" s="60">
+        <v>4</v>
+      </c>
+      <c r="E27" s="61">
+        <v>9</v>
+      </c>
+      <c r="F27" s="61">
+        <v>5</v>
+      </c>
+      <c r="G27" s="61">
+        <v>9</v>
+      </c>
+      <c r="H27" s="61">
+        <v>9</v>
+      </c>
+      <c r="I27" s="61">
+        <v>10</v>
+      </c>
+      <c r="J27" s="61">
+        <v>7</v>
+      </c>
+      <c r="K27" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -11309,14 +12027,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
+      <c r="D28" s="63">
+        <v>1</v>
+      </c>
+      <c r="E28" s="64">
+        <v>9</v>
+      </c>
+      <c r="F28" s="64">
+        <v>8</v>
+      </c>
+      <c r="G28" s="64">
+        <v>9</v>
+      </c>
+      <c r="H28" s="64">
+        <v>9</v>
+      </c>
+      <c r="I28" s="64">
+        <v>6</v>
+      </c>
+      <c r="J28" s="64">
+        <v>8</v>
+      </c>
+      <c r="K28" s="65">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -11326,14 +12060,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="73"/>
+      <c r="D29" s="66">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
+        <v>5</v>
+      </c>
+      <c r="F29" s="16">
+        <v>9</v>
+      </c>
+      <c r="G29" s="16">
+        <v>10</v>
+      </c>
+      <c r="H29" s="16">
+        <v>1</v>
+      </c>
+      <c r="I29" s="16">
+        <v>4</v>
+      </c>
+      <c r="J29" s="16">
+        <v>2</v>
+      </c>
+      <c r="K29" s="67">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -11341,14 +12091,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="D30" s="63">
+        <v>1</v>
+      </c>
+      <c r="E30" s="64">
+        <v>9</v>
+      </c>
+      <c r="F30" s="64">
+        <v>6</v>
+      </c>
+      <c r="G30" s="64">
+        <v>2</v>
+      </c>
+      <c r="H30" s="64">
+        <v>6</v>
+      </c>
+      <c r="I30" s="64">
+        <v>5</v>
+      </c>
+      <c r="J30" s="64">
+        <v>9</v>
+      </c>
+      <c r="K30" s="65">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -11555,24 +12321,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11582,29 +12348,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="62" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="62" t="s">
+      <c r="N3" s="71"/>
+      <c r="O3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="64"/>
+      <c r="P3" s="72"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">

--- a/results_analysis/spark_vertebralColum_02_hold_01_best.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01_best.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67BC084-E3D9-49BA-8D88-250617D5A2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE8EAE8-9BBC-497B-AE37-9042F16F4666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:K30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5033,8 +5033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C92042-0542-4E55-9D7F-B323C5541110}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9133,7 +9133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/results_analysis/spark_vertebralColum_02_hold_01_best.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01_best.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE8EAE8-9BBC-497B-AE37-9042F16F4666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E9EB45-FBE2-4BAD-B9AA-1A96321A5E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -147,8 +147,16 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -523,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,6 +750,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1674,16 +1703,16 @@
       <c r="G23" s="61">
         <v>0.75107526881720399</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="74">
         <v>0.75817204301075303</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="74">
         <v>0.79806451612903195</v>
       </c>
       <c r="J23" s="61">
         <v>0.66118279569892502</v>
       </c>
-      <c r="K23" s="62">
+      <c r="K23" s="75">
         <v>0.77903225806451604</v>
       </c>
     </row>
@@ -1701,19 +1730,19 @@
       <c r="F24" s="64">
         <v>0.70440860215053802</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="77">
         <v>0.76763440860215004</v>
       </c>
       <c r="H24" s="64">
         <v>0.74559139784946205</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="77">
         <v>0.79720430107526896</v>
       </c>
       <c r="J24" s="64">
         <v>0.64634408602150495</v>
       </c>
-      <c r="K24" s="65">
+      <c r="K24" s="76">
         <v>0.78118279569892501</v>
       </c>
     </row>
@@ -1725,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="60">
+      <c r="D25" s="78">
         <v>0.77903225806451604</v>
       </c>
       <c r="E25" s="61">
@@ -1740,13 +1769,13 @@
       <c r="H25" s="61">
         <v>0.73258064516128996</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="74">
         <v>0.80365591397849501</v>
       </c>
       <c r="J25" s="61">
         <v>0.71860215053763399</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="75">
         <v>0.77376344086021498</v>
       </c>
     </row>
@@ -1764,19 +1793,19 @@
       <c r="F26" s="64">
         <v>0.74817204301075302</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="77">
         <v>0.79161290322580602</v>
       </c>
       <c r="H26" s="64">
         <v>0.695268817204301</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="77">
         <v>0.80290322580645102</v>
       </c>
       <c r="J26" s="64">
         <v>0.68096774193548404</v>
       </c>
-      <c r="K26" s="65">
+      <c r="K26" s="76">
         <v>0.80924731182795695</v>
       </c>
     </row>
@@ -1791,19 +1820,19 @@
       <c r="D27" s="60">
         <v>0.74924731182795701</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="74">
         <v>0.77225806451612899</v>
       </c>
       <c r="F27" s="61">
         <v>0.75978494623655901</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="74">
         <v>0.77064516129032301</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="74">
         <v>0.76451612903225796</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="74">
         <v>0.76591397849462395</v>
       </c>
       <c r="J27" s="61">
@@ -1822,10 +1851,10 @@
       <c r="D28" s="63">
         <v>0.70580645161290301</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="77">
         <v>0.76258064516128998</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="77">
         <v>0.771397849462365</v>
       </c>
       <c r="G28" s="64">
@@ -1834,13 +1863,13 @@
       <c r="H28" s="64">
         <v>0.71935483870967698</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="77">
         <v>0.760752688172043</v>
       </c>
       <c r="J28" s="64">
         <v>0.69849462365591397</v>
       </c>
-      <c r="K28" s="65">
+      <c r="K28" s="76">
         <v>0.78075268817204302</v>
       </c>
     </row>
@@ -1861,10 +1890,10 @@
       <c r="F29" s="16">
         <v>0.749892473118279</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="79">
         <v>0.79978494623655905</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="79">
         <v>0.79806451612903195</v>
       </c>
       <c r="I29" s="16">
@@ -1873,7 +1902,7 @@
       <c r="J29" s="16">
         <v>0.74634408602150504</v>
       </c>
-      <c r="K29" s="67">
+      <c r="K29" s="80">
         <v>0.78430107526881698</v>
       </c>
     </row>
@@ -1898,13 +1927,13 @@
       <c r="H30" s="64">
         <v>0.70924731182795697</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="77">
         <v>0.77516129032258096</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="77">
         <v>0.75967741935483901</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="76">
         <v>0.76795698924731204</v>
       </c>
     </row>
@@ -5033,7 +5062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C92042-0542-4E55-9D7F-B323C5541110}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>

--- a/results_analysis/spark_vertebralColum_02_hold_01_best.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01_best.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E9EB45-FBE2-4BAD-B9AA-1A96321A5E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D61274-BBBE-4537-B67D-B1C06E371381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -734,24 +734,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,6 +753,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1055,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -1074,19 +1098,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1703,16 +1727,16 @@
       <c r="G23" s="61">
         <v>0.75107526881720399</v>
       </c>
-      <c r="H23" s="74">
+      <c r="H23" s="68">
         <v>0.75817204301075303</v>
       </c>
-      <c r="I23" s="74">
+      <c r="I23" s="68">
         <v>0.79806451612903195</v>
       </c>
       <c r="J23" s="61">
         <v>0.66118279569892502</v>
       </c>
-      <c r="K23" s="75">
+      <c r="K23" s="69">
         <v>0.77903225806451604</v>
       </c>
     </row>
@@ -1730,19 +1754,19 @@
       <c r="F24" s="64">
         <v>0.70440860215053802</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="71">
         <v>0.76763440860215004</v>
       </c>
       <c r="H24" s="64">
         <v>0.74559139784946205</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="71">
         <v>0.79720430107526896</v>
       </c>
       <c r="J24" s="64">
         <v>0.64634408602150495</v>
       </c>
-      <c r="K24" s="76">
+      <c r="K24" s="70">
         <v>0.78118279569892501</v>
       </c>
     </row>
@@ -1754,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="78">
+      <c r="D25" s="72">
         <v>0.77903225806451604</v>
       </c>
       <c r="E25" s="61">
@@ -1769,13 +1793,13 @@
       <c r="H25" s="61">
         <v>0.73258064516128996</v>
       </c>
-      <c r="I25" s="74">
+      <c r="I25" s="68">
         <v>0.80365591397849501</v>
       </c>
       <c r="J25" s="61">
         <v>0.71860215053763399</v>
       </c>
-      <c r="K25" s="75">
+      <c r="K25" s="69">
         <v>0.77376344086021498</v>
       </c>
     </row>
@@ -1793,19 +1817,19 @@
       <c r="F26" s="64">
         <v>0.74817204301075302</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="71">
         <v>0.79161290322580602</v>
       </c>
       <c r="H26" s="64">
         <v>0.695268817204301</v>
       </c>
-      <c r="I26" s="77">
+      <c r="I26" s="71">
         <v>0.80290322580645102</v>
       </c>
       <c r="J26" s="64">
         <v>0.68096774193548404</v>
       </c>
-      <c r="K26" s="76">
+      <c r="K26" s="70">
         <v>0.80924731182795695</v>
       </c>
     </row>
@@ -1820,19 +1844,19 @@
       <c r="D27" s="60">
         <v>0.74924731182795701</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="68">
         <v>0.77225806451612899</v>
       </c>
       <c r="F27" s="61">
         <v>0.75978494623655901</v>
       </c>
-      <c r="G27" s="74">
+      <c r="G27" s="68">
         <v>0.77064516129032301</v>
       </c>
-      <c r="H27" s="74">
+      <c r="H27" s="68">
         <v>0.76451612903225796</v>
       </c>
-      <c r="I27" s="74">
+      <c r="I27" s="68">
         <v>0.76591397849462395</v>
       </c>
       <c r="J27" s="61">
@@ -1851,10 +1875,10 @@
       <c r="D28" s="63">
         <v>0.70580645161290301</v>
       </c>
-      <c r="E28" s="77">
+      <c r="E28" s="71">
         <v>0.76258064516128998</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="71">
         <v>0.771397849462365</v>
       </c>
       <c r="G28" s="64">
@@ -1863,13 +1887,13 @@
       <c r="H28" s="64">
         <v>0.71935483870967698</v>
       </c>
-      <c r="I28" s="77">
+      <c r="I28" s="71">
         <v>0.760752688172043</v>
       </c>
       <c r="J28" s="64">
         <v>0.69849462365591397</v>
       </c>
-      <c r="K28" s="76">
+      <c r="K28" s="70">
         <v>0.78075268817204302</v>
       </c>
     </row>
@@ -1890,10 +1914,10 @@
       <c r="F29" s="16">
         <v>0.749892473118279</v>
       </c>
-      <c r="G29" s="79">
+      <c r="G29" s="73">
         <v>0.79978494623655905</v>
       </c>
-      <c r="H29" s="79">
+      <c r="H29" s="73">
         <v>0.79806451612903195</v>
       </c>
       <c r="I29" s="16">
@@ -1902,7 +1926,7 @@
       <c r="J29" s="16">
         <v>0.74634408602150504</v>
       </c>
-      <c r="K29" s="80">
+      <c r="K29" s="74">
         <v>0.78430107526881698</v>
       </c>
     </row>
@@ -1927,13 +1951,13 @@
       <c r="H30" s="64">
         <v>0.70924731182795697</v>
       </c>
-      <c r="I30" s="77">
+      <c r="I30" s="71">
         <v>0.77516129032258096</v>
       </c>
-      <c r="J30" s="77">
+      <c r="J30" s="71">
         <v>0.75967741935483901</v>
       </c>
-      <c r="K30" s="76">
+      <c r="K30" s="70">
         <v>0.76795698924731204</v>
       </c>
     </row>
@@ -2205,61 +2229,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="70" t="s">
+      <c r="G3" s="78"/>
+      <c r="H3" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="70" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="70" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="70" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="70" t="s">
+      <c r="O3" s="78"/>
+      <c r="P3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="70" t="s">
+      <c r="Q3" s="78"/>
+      <c r="R3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="72"/>
+      <c r="S3" s="79"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3544,19 +3568,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4309,19 +4333,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -5081,19 +5105,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6205,19 +6229,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7132,19 +7156,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8109,7 +8133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
@@ -8126,19 +8150,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8734,28 +8758,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="60">
+      <c r="D23" s="81">
         <v>10</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="82">
         <v>22</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="82">
         <v>32</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="82">
         <v>30</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="82">
         <v>30</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="82">
         <v>173</v>
       </c>
-      <c r="J23" s="61">
+      <c r="J23" s="82">
         <v>6</v>
       </c>
-      <c r="K23" s="62">
+      <c r="K23" s="83">
         <v>64</v>
       </c>
     </row>
@@ -8764,28 +8788,28 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="84">
         <v>14</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="85">
         <v>28</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="85">
         <v>20</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="85">
         <v>28</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="85">
         <v>21</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="85">
         <v>173</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="85">
         <v>6</v>
       </c>
-      <c r="K24" s="65">
+      <c r="K24" s="86">
         <v>27</v>
       </c>
     </row>
@@ -8797,28 +8821,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="60">
+      <c r="D25" s="81">
         <v>39</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="82">
         <v>45</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="82">
         <v>35</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="82">
         <v>30</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="82">
         <v>20</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="82">
         <v>173</v>
       </c>
-      <c r="J25" s="61">
+      <c r="J25" s="82">
         <v>13</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="83">
         <v>36</v>
       </c>
     </row>
@@ -8827,28 +8851,28 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="84">
         <v>7</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="85">
         <v>41</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="85">
         <v>35</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="85">
         <v>45</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="85">
         <v>6</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="85">
         <v>173</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="85">
         <v>9</v>
       </c>
-      <c r="K26" s="65">
+      <c r="K26" s="86">
         <v>50</v>
       </c>
     </row>
@@ -8860,28 +8884,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="60">
+      <c r="D27" s="81">
         <v>19</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="82">
         <v>15</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="82">
         <v>20</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="82">
         <v>29</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="82">
         <v>18</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="82">
         <v>17</v>
       </c>
-      <c r="J27" s="61">
+      <c r="J27" s="82">
         <v>20</v>
       </c>
-      <c r="K27" s="62">
+      <c r="K27" s="83">
         <v>12</v>
       </c>
     </row>
@@ -8891,28 +8915,28 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="63">
+      <c r="D28" s="84">
         <v>12</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="85">
         <v>23</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="85">
         <v>37</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="85">
         <v>16</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="85">
         <v>16</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="85">
         <v>16</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="85">
         <v>7</v>
       </c>
-      <c r="K28" s="65">
+      <c r="K28" s="86">
         <v>33</v>
       </c>
     </row>
@@ -8924,28 +8948,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="66">
+      <c r="D29" s="87">
         <v>8</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="11">
         <v>20</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="11">
         <v>37</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="11">
         <v>112</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="11">
         <v>141</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="11">
         <v>29</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="11">
         <v>16</v>
       </c>
-      <c r="K29" s="67">
+      <c r="K29" s="88">
         <v>91</v>
       </c>
     </row>
@@ -8955,28 +8979,28 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="63">
+      <c r="D30" s="84">
         <v>12</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="85">
         <v>33</v>
       </c>
-      <c r="F30" s="64">
+      <c r="F30" s="85">
         <v>35</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="85">
         <v>9</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="85">
         <v>17</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="85">
         <v>52</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="85">
         <v>25</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="86">
         <v>38</v>
       </c>
     </row>
@@ -9179,19 +9203,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10235,19 +10259,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11291,19 +11315,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12350,24 +12374,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12377,29 +12401,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="70" t="s">
+      <c r="L3" s="78"/>
+      <c r="M3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="70" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="72"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
